--- a/step1/data.xlsx
+++ b/step1/data.xlsx
@@ -420,6 +420,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="47" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -589,15 +597,6 @@
           <t>18CBB825-2DFB-41FD-80A7-976B6A7526AC.jpg</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>**HOMD-21-2_LM**,core</t>
@@ -709,15 +708,6 @@
           <t>F299B9C8-562E-4A98-A0D1-28976578A7D0.jpg</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -751,9 +741,6 @@
           <t>B03DCF6A-5191-49F2-9127-D41002A7108D.jpg</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
       <c r="D14" t="n">
         <v>21</v>
       </c>
@@ -897,15 +884,6 @@
           <t>853F2470-015F-4C8E-B245-A27602C06D36.jpg</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v/>
-      </c>
-      <c r="D20" t="n">
-        <v/>
-      </c>
-      <c r="E20" t="n">
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -976,9 +954,6 @@
       <c r="D23" t="n">
         <v>6</v>
       </c>
-      <c r="E23" t="n">
-        <v/>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -986,15 +961,6 @@
           <t>9AC1B241-B7D3-4EDF-B580-E9211DBCB340.jpg</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v/>
-      </c>
-      <c r="D24" t="n">
-        <v/>
-      </c>
-      <c r="E24" t="n">
-        <v/>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1054,15 +1020,6 @@
           <t>A109E063-8CB6-4DE9-A6C1-981344C8BB2E.jpg</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v/>
-      </c>
-      <c r="D27" t="n">
-        <v/>
-      </c>
-      <c r="E27" t="n">
-        <v/>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1096,15 +1053,6 @@
           <t>90492AAC-A59B-4B9C-B723-BD92EB585B6A.jpg</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v/>
-      </c>
-      <c r="D29" t="n">
-        <v/>
-      </c>
-      <c r="E29" t="n">
-        <v/>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1123,9 +1071,6 @@
       <c r="D30" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v/>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>GW-9833_LM</t>
@@ -1138,15 +1083,6 @@
           <t>C92995E8-EABC-48AB-BD22-9F62A1CD2027.jpg</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v/>
-      </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
-      <c r="E31" t="n">
-        <v/>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1269,9 +1205,6 @@
           <t>746A2C78-DED4-487A-8D28-70F737329747.jpg</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v/>
-      </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
@@ -1358,12 +1291,6 @@
           <t>7EAE7940-C0B7-483A-820D-A2EF12C8771D.jpg</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v/>
-      </c>
-      <c r="D41" t="n">
-        <v/>
-      </c>
       <c r="E41" t="n">
         <v>28</v>
       </c>
@@ -1405,15 +1332,6 @@
           <t>2CA67A7A-668B-432F-B8DE-1F54E396C867.jpg</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v/>
-      </c>
-      <c r="D43" t="n">
-        <v/>
-      </c>
-      <c r="E43" t="n">
-        <v/>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1515,15 +1433,6 @@
           <t>1A95B21F-CD2E-46B8-A25D-6A2FA418ADCD.jpg</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v/>
-      </c>
-      <c r="D48" t="n">
-        <v/>
-      </c>
-      <c r="E48" t="n">
-        <v/>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1557,9 +1466,6 @@
           <t>6E40B9CE-6171-4C94-B231-9B0C087E1D4D.jpg</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v/>
-      </c>
       <c r="D50" t="n">
         <v>7</v>
       </c>
@@ -1578,15 +1484,6 @@
           <t>D3A1203F-84B5-4C41-A25C-17CE74BA3717.jpg</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v/>
-      </c>
-      <c r="D51" t="n">
-        <v/>
-      </c>
-      <c r="E51" t="n">
-        <v/>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1594,15 +1491,6 @@
           <t>9B270845-0033-4C7C-B81B-8E4A593994B0.jpg</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v/>
-      </c>
-      <c r="D52" t="n">
-        <v/>
-      </c>
-      <c r="E52" t="n">
-        <v/>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>BESC-1161</t>
@@ -1615,15 +1503,6 @@
           <t>389E27AD-B37D-46C3-9EF4-2BC24E988E54.jpg</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v/>
-      </c>
-      <c r="D53" t="n">
-        <v/>
-      </c>
-      <c r="E53" t="n">
-        <v/>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1709,15 +1588,6 @@
           <t>5D129F60-E0FB-4971-9E1D-4452F9189B1F.jpg</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v/>
-      </c>
-      <c r="D57" t="n">
-        <v/>
-      </c>
-      <c r="E57" t="n">
-        <v/>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1829,15 +1699,6 @@
           <t>E2DEE86A-4129-45B3-98D0-C757222C5890.jpg</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v/>
-      </c>
-      <c r="D62" t="n">
-        <v/>
-      </c>
-      <c r="E62" t="n">
-        <v/>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1845,9 +1706,6 @@
           <t>7621CBDE-5EF2-4988-BD56-A44FFAD7CAA7.jpg</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v/>
-      </c>
       <c r="D63" t="n">
         <v>23</v>
       </c>
@@ -1874,9 +1732,6 @@
       <c r="C64" t="n">
         <v>2</v>
       </c>
-      <c r="D64" t="n">
-        <v/>
-      </c>
       <c r="E64" t="n">
         <v>18</v>
       </c>
@@ -1939,15 +1794,6 @@
           <t>FB6A85A0-68CF-4D5E-A308-AD47FC9AA304.jpg</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v/>
-      </c>
-      <c r="D67" t="n">
-        <v/>
-      </c>
-      <c r="E67" t="n">
-        <v/>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1981,15 +1827,6 @@
           <t>0CD2B0E5-B4E5-4D43-9F33-1A2AE266C851.jpg</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v/>
-      </c>
-      <c r="D69" t="n">
-        <v/>
-      </c>
-      <c r="E69" t="n">
-        <v/>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2023,12 +1860,6 @@
           <t>4EE72402-4667-4905-B87D-0D32FE3D1312.jpg</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v/>
-      </c>
-      <c r="D71" t="n">
-        <v/>
-      </c>
       <c r="E71" t="n">
         <v>12</v>
       </c>
@@ -2044,9 +1875,6 @@
           <t>85E0C770-2A1D-4409-B4A1-E4462A188628.jpg</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v/>
-      </c>
       <c r="D72" t="n">
         <v>3</v>
       </c>
@@ -2107,15 +1935,9 @@
           <t>A5E1C318-6586-40FC-8087-C1D37B933A9A.jpg</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v/>
-      </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
-      <c r="E75" t="n">
-        <v/>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>**HRSP-27-5**,core</t>
@@ -2128,15 +1950,6 @@
           <t>31608FFC-DF29-43AF-98CD-89BB57B901EE.jpg</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v/>
-      </c>
-      <c r="D76" t="n">
-        <v/>
-      </c>
-      <c r="E76" t="n">
-        <v/>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2217,9 +2030,6 @@
           <t>EE267AE2-893C-42FB-8394-FEED9862FBB6.jpg</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v/>
-      </c>
       <c r="D80" t="n">
         <v>2</v>
       </c>
@@ -2426,9 +2236,6 @@
           <t>B69B9328-4001-41F6-8BD3-8F4410F4092C.jpg</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v/>
-      </c>
       <c r="D89" t="n">
         <v>4</v>
       </c>
@@ -2588,9 +2395,6 @@
           <t>D4ECCF29-49F9-4FBA-8294-B0FD0C607334.jpg</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v/>
-      </c>
       <c r="D96" t="n">
         <v>31</v>
       </c>
@@ -2687,12 +2491,6 @@
           <t>3021C122-0F3E-472A-9F88-E37330E5BC6F.jpg</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v/>
-      </c>
-      <c r="D100" t="n">
-        <v/>
-      </c>
       <c r="E100" t="n">
         <v>52</v>
       </c>
@@ -2812,15 +2610,6 @@
           <t>E5582612-F14D-46BC-8B5F-6C4D3BE576E1.jpg</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v/>
-      </c>
-      <c r="D105" t="n">
-        <v/>
-      </c>
-      <c r="E105" t="n">
-        <v/>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>BESC-1013</t>
@@ -3140,12 +2929,6 @@
           <t>D27E0F72-0BDC-4530-A069-EF8B35C30039.jpg</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v/>
-      </c>
-      <c r="D118" t="n">
-        <v/>
-      </c>
       <c r="E118" t="n">
         <v>62</v>
       </c>
@@ -3218,15 +3001,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v/>
-      </c>
-      <c r="D121" t="n">
-        <v/>
-      </c>
-      <c r="E121" t="n">
-        <v/>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3338,9 +3112,6 @@
           <t>D62C4F33-F811-40A5-850A-293736197CCC.jpg</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v/>
-      </c>
       <c r="D126" t="n">
         <v>22</v>
       </c>
@@ -3359,15 +3130,6 @@
           <t>642E0A74-C798-4147-9CED-18EDC682B86A.jpg</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v/>
-      </c>
-      <c r="D127" t="n">
-        <v/>
-      </c>
-      <c r="E127" t="n">
-        <v/>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3375,12 +3137,6 @@
           <t>8E3E2C9F-DEE9-4F78-B3A2-4903BF09D5BE.jpg</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v/>
-      </c>
-      <c r="D128" t="n">
-        <v/>
-      </c>
       <c r="E128" t="n">
         <v>72</v>
       </c>
@@ -3401,9 +3157,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v/>
-      </c>
       <c r="D129" t="n">
         <v>9</v>
       </c>
@@ -3448,15 +3201,6 @@
           <t>5E7C098B-6D36-4260-81C2-59C632F6B638.jpg</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v/>
-      </c>
-      <c r="D131" t="n">
-        <v/>
-      </c>
-      <c r="E131" t="n">
-        <v/>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3626,9 +3370,6 @@
       <c r="D138" t="n">
         <v>26</v>
       </c>
-      <c r="E138" t="n">
-        <v/>
-      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>**BESC-1007_26**,core</t>
@@ -3740,15 +3481,6 @@
           <t>E2E59605-7DE1-45AF-9D7F-E8ADF2608CF5.jpg</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v/>
-      </c>
-      <c r="D143" t="n">
-        <v/>
-      </c>
-      <c r="E143" t="n">
-        <v/>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3756,15 +3488,6 @@
           <t>A1223DD2-5D52-4CF2-87BE-AA86C94D3573.jpg</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v/>
-      </c>
-      <c r="D144" t="n">
-        <v/>
-      </c>
-      <c r="E144" t="n">
-        <v/>
-      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>**KLNG-20-3_LM**,core</t>
@@ -3785,12 +3508,6 @@
       <c r="C145" t="n">
         <v>1</v>
       </c>
-      <c r="D145" t="n">
-        <v/>
-      </c>
-      <c r="E145" t="n">
-        <v/>
-      </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>BESC-1223_37_3</t>
@@ -4053,15 +3770,6 @@
           <t>F850AC77-C0CC-447B-AF4E-6B2BBC7D8D7B.jpg</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v/>
-      </c>
-      <c r="D156" t="n">
-        <v/>
-      </c>
-      <c r="E156" t="n">
-        <v/>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4168,15 +3876,6 @@
           <t>EA8C15E8-7095-4CA7-BB41-4201545DA219.jpg</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v/>
-      </c>
-      <c r="D161" t="n">
-        <v/>
-      </c>
-      <c r="E161" t="n">
-        <v/>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4309,12 +4008,6 @@
           <t>48960230-1AC6-4CB1-B6C4-378BC8D0F90D.jpg</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v/>
-      </c>
-      <c r="D167" t="n">
-        <v/>
-      </c>
       <c r="E167" t="n">
         <v>29</v>
       </c>
@@ -4466,9 +4159,6 @@
       <c r="D173" t="n">
         <v>30</v>
       </c>
-      <c r="E173" t="n">
-        <v/>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4523,9 +4213,6 @@
           <t>1C5C7DC7-426E-45E7-862C-C344B9F76CDD.jpg</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v/>
-      </c>
       <c r="D176" t="n">
         <v>12</v>
       </c>
@@ -4597,9 +4284,6 @@
       <c r="D179" t="n">
         <v>17</v>
       </c>
-      <c r="E179" t="n">
-        <v/>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4607,15 +4291,6 @@
           <t>459DAB27-E4ED-42AF-91A6-89B1063ABB64.jpg</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v/>
-      </c>
-      <c r="D180" t="n">
-        <v/>
-      </c>
-      <c r="E180" t="n">
-        <v/>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4722,15 +4397,6 @@
           <t>50FC49F1-8C78-4870-9294-2F2EC79F1198.jpg</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v/>
-      </c>
-      <c r="D185" t="n">
-        <v/>
-      </c>
-      <c r="E185" t="n">
-        <v/>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4941,15 +4607,6 @@
           <t>9769C5D7-987B-411C-8C48-BD3EE77F331D.jpg</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v/>
-      </c>
-      <c r="D194" t="n">
-        <v/>
-      </c>
-      <c r="E194" t="n">
-        <v/>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4983,15 +4640,6 @@
           <t>F6D1C602-F466-47E4-B9AD-EDE2ADD6B772.jpg</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v/>
-      </c>
-      <c r="D196" t="n">
-        <v/>
-      </c>
-      <c r="E196" t="n">
-        <v/>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4999,15 +4647,6 @@
           <t>85832CAE-B385-485D-BDDA-89D031AFE01A.jpg</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v/>
-      </c>
-      <c r="D197" t="n">
-        <v/>
-      </c>
-      <c r="E197" t="n">
-        <v/>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5135,15 +4774,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v/>
-      </c>
       <c r="D203" t="n">
         <v>8</v>
       </c>
-      <c r="E203" t="n">
-        <v/>
-      </c>
       <c r="F203" t="inlineStr">
         <is>
           <t>BESC-373_LM</t>
@@ -5182,9 +4815,6 @@
           <t>817527F6-72CD-4417-8607-DC88A81D8E51.jpg</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v/>
-      </c>
       <c r="D205" t="n">
         <v>2</v>
       </c>
@@ -5229,15 +4859,6 @@
           <t>37552A67-21B8-4757-B3DA-06E92AB7D2D4.jpg</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v/>
-      </c>
-      <c r="D207" t="n">
-        <v/>
-      </c>
-      <c r="E207" t="n">
-        <v/>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5318,15 +4939,6 @@
           <t>F1F18FDB-62F2-44CA-9907-A0333910358A.jpg</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v/>
-      </c>
-      <c r="D211" t="n">
-        <v/>
-      </c>
-      <c r="E211" t="n">
-        <v/>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5407,15 +5019,6 @@
           <t>316B456E-52CF-467D-BAD0-E15E56F197B7.jpg</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v/>
-      </c>
-      <c r="D215" t="n">
-        <v/>
-      </c>
-      <c r="E215" t="n">
-        <v/>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5501,15 +5104,6 @@
           <t>BC34081E-20CE-49DC-92C6-46F1474D0624.jpg</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v/>
-      </c>
-      <c r="D219" t="n">
-        <v/>
-      </c>
-      <c r="E219" t="n">
-        <v/>
-      </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>**BESC-250_LM**,core</t>
@@ -5548,9 +5142,6 @@
           <t>81D50027-3489-4FA5-AE7F-E6E8D1E52BAF.jpg</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v/>
-      </c>
       <c r="D221" t="n">
         <v>42</v>
       </c>
@@ -5590,15 +5181,6 @@
           <t>89934F27-6E49-4CE0-A953-FFB6920E8592.jpg</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v/>
-      </c>
-      <c r="D223" t="n">
-        <v/>
-      </c>
-      <c r="E223" t="n">
-        <v/>
-      </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>**HOPF-27-5**,core</t>
@@ -5611,15 +5193,6 @@
           <t>4B81BE5B-82F9-48D5-A199-78080270C219.jpg</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v/>
-      </c>
-      <c r="D224" t="n">
-        <v/>
-      </c>
-      <c r="E224" t="n">
-        <v/>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5700,15 +5273,6 @@
           <t>B352CE29-DFDE-410F-9F4F-6B3ED2300B6E.jpg</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v/>
-      </c>
-      <c r="D228" t="n">
-        <v/>
-      </c>
-      <c r="E228" t="n">
-        <v/>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5724,9 +5288,6 @@
       <c r="C229" t="n">
         <v>13</v>
       </c>
-      <c r="D229" t="n">
-        <v/>
-      </c>
       <c r="E229" t="n">
         <v>71</v>
       </c>
@@ -6070,9 +5631,6 @@
           <t>8D97ECFA-9606-480A-9613-F8F239F191BD.jpg</t>
         </is>
       </c>
-      <c r="C243" t="n">
-        <v/>
-      </c>
       <c r="D243" t="n">
         <v>38</v>
       </c>
@@ -6346,15 +5904,6 @@
           <t>B9CF69D2-E0AC-4D15-BD47-F38A24722CDB.jpg</t>
         </is>
       </c>
-      <c r="C254" t="n">
-        <v/>
-      </c>
-      <c r="D254" t="n">
-        <v/>
-      </c>
-      <c r="E254" t="n">
-        <v/>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6456,15 +6005,6 @@
           <t>1883FD4C-050C-4525-8A05-E19F4221DDEB.jpg</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v/>
-      </c>
-      <c r="D259" t="n">
-        <v/>
-      </c>
-      <c r="E259" t="n">
-        <v/>
-      </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>GW-7152</t>
@@ -6503,15 +6043,6 @@
           <t>64004FB6-6B55-4A7B-8AED-F425D206B8E5.jpg</t>
         </is>
       </c>
-      <c r="C261" t="n">
-        <v/>
-      </c>
-      <c r="D261" t="n">
-        <v/>
-      </c>
-      <c r="E261" t="n">
-        <v/>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6701,15 +6232,6 @@
           <t>DFFCEB3D-31CA-47AC-926C-2E4F33C37621.jpg</t>
         </is>
       </c>
-      <c r="C269" t="n">
-        <v/>
-      </c>
-      <c r="D269" t="n">
-        <v/>
-      </c>
-      <c r="E269" t="n">
-        <v/>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6769,15 +6291,6 @@
           <t>818CB6EC-62B1-4DF3-AD75-BBDC493E3A41.jpg</t>
         </is>
       </c>
-      <c r="C272" t="n">
-        <v/>
-      </c>
-      <c r="D272" t="n">
-        <v/>
-      </c>
-      <c r="E272" t="n">
-        <v/>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6785,15 +6298,9 @@
           <t>35048600-42C4-4F68-A8FE-9DFC928B37E2.jpg</t>
         </is>
       </c>
-      <c r="C273" t="n">
-        <v/>
-      </c>
       <c r="D273" t="n">
         <v>21</v>
       </c>
-      <c r="E273" t="n">
-        <v/>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6801,9 +6308,6 @@
           <t>9BF6E975-D881-4F0A-AE79-CC01266D1662.jpg</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v/>
-      </c>
       <c r="D274" t="n">
         <v>5</v>
       </c>
@@ -6921,15 +6425,6 @@
           <t>86AC8985-A62A-41D0-82AC-E74C2A75DADE.jpg</t>
         </is>
       </c>
-      <c r="C279" t="n">
-        <v/>
-      </c>
-      <c r="D279" t="n">
-        <v/>
-      </c>
-      <c r="E279" t="n">
-        <v/>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6979,15 +6474,6 @@
           <t>67C03BD1-AB60-4658-BCEE-2F0A5C0ACE88.jpg</t>
         </is>
       </c>
-      <c r="C282" t="n">
-        <v/>
-      </c>
-      <c r="D282" t="n">
-        <v/>
-      </c>
-      <c r="E282" t="n">
-        <v/>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7037,9 +6523,6 @@
           <t>04068BF3-9E45-48EA-9C05-F21C80076965.jpg</t>
         </is>
       </c>
-      <c r="C285" t="n">
-        <v/>
-      </c>
       <c r="D285" t="n">
         <v>11</v>
       </c>
@@ -7282,15 +6765,6 @@
           <t>14A1C381-1CD7-4D6E-AABB-394F23DBFE72.jpg</t>
         </is>
       </c>
-      <c r="C295" t="n">
-        <v/>
-      </c>
-      <c r="D295" t="n">
-        <v/>
-      </c>
-      <c r="E295" t="n">
-        <v/>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7423,9 +6897,6 @@
           <t>C00CD462-52A7-4D0D-A628-A6C523E64342.jpg</t>
         </is>
       </c>
-      <c r="C301" t="n">
-        <v/>
-      </c>
       <c r="D301" t="n">
         <v>4</v>
       </c>
@@ -7517,9 +6988,6 @@
           <t>64DE7B0E-05F2-400F-9F40-B1D20A7CFF1E.jpg</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v/>
-      </c>
       <c r="D305" t="n">
         <v>4</v>
       </c>
@@ -7538,15 +7006,6 @@
           <t>319F9CD0-25F5-489D-A46B-BBB018212AF7.jpg</t>
         </is>
       </c>
-      <c r="C306" t="n">
-        <v/>
-      </c>
-      <c r="D306" t="n">
-        <v/>
-      </c>
-      <c r="E306" t="n">
-        <v/>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7601,15 +7060,6 @@
           <t>E7301B2B-ADE6-4B60-9493-BA1D53891D07.jpg</t>
         </is>
       </c>
-      <c r="C309" t="n">
-        <v/>
-      </c>
-      <c r="D309" t="n">
-        <v/>
-      </c>
-      <c r="E309" t="n">
-        <v/>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7841,9 +7291,6 @@
           <t>704FF23E-93E6-43D2-9EB3-8B5CF578DD61.jpg</t>
         </is>
       </c>
-      <c r="C319" t="n">
-        <v/>
-      </c>
       <c r="D319" t="n">
         <v>43</v>
       </c>
@@ -7914,15 +7361,6 @@
           <t>0C0A6316-2115-401B-B386-D3C0510481EB.jpg</t>
         </is>
       </c>
-      <c r="C322" t="n">
-        <v/>
-      </c>
-      <c r="D322" t="n">
-        <v/>
-      </c>
-      <c r="E322" t="n">
-        <v/>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7935,9 +7373,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C323" t="n">
-        <v/>
-      </c>
       <c r="D323" t="n">
         <v>37</v>
       </c>
@@ -7982,15 +7417,6 @@
           <t>0166787A-CDF7-4F22-8EA9-59818E874436.jpg</t>
         </is>
       </c>
-      <c r="C325" t="n">
-        <v/>
-      </c>
-      <c r="D325" t="n">
-        <v/>
-      </c>
-      <c r="E325" t="n">
-        <v/>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8118,15 +7544,6 @@
           <t>09957B08-7C3B-47D3-972A-D012E767EE76.jpg</t>
         </is>
       </c>
-      <c r="C331" t="n">
-        <v/>
-      </c>
-      <c r="D331" t="n">
-        <v/>
-      </c>
-      <c r="E331" t="n">
-        <v/>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8394,15 +7811,6 @@
           <t>F06014D4-0F93-40BB-A25B-93BCB5580B84.jpg</t>
         </is>
       </c>
-      <c r="C342" t="n">
-        <v/>
-      </c>
-      <c r="D342" t="n">
-        <v/>
-      </c>
-      <c r="E342" t="n">
-        <v/>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8415,15 +7823,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C343" t="n">
-        <v/>
-      </c>
-      <c r="D343" t="n">
-        <v/>
-      </c>
-      <c r="E343" t="n">
-        <v/>
-      </c>
       <c r="F343" t="inlineStr">
         <is>
           <t>**GW-2505**,core</t>
@@ -8436,12 +7835,6 @@
           <t>CFB69D1D-DCC7-4ED3-8CE6-2011DC17A982.jpg</t>
         </is>
       </c>
-      <c r="C344" t="n">
-        <v/>
-      </c>
-      <c r="D344" t="n">
-        <v/>
-      </c>
       <c r="E344" t="n">
         <v>56</v>
       </c>
@@ -8457,9 +7850,6 @@
           <t>981F47B1-94D6-4168-A327-0326AAC766E5.jpg</t>
         </is>
       </c>
-      <c r="C345" t="n">
-        <v/>
-      </c>
       <c r="D345" t="n">
         <v>2</v>
       </c>
@@ -8478,15 +7868,6 @@
           <t>1EC99899-AF92-4BFB-8C3F-9B0903D89576.jpg</t>
         </is>
       </c>
-      <c r="C346" t="n">
-        <v/>
-      </c>
-      <c r="D346" t="n">
-        <v/>
-      </c>
-      <c r="E346" t="n">
-        <v/>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8606,9 +7987,6 @@
       <c r="C351" t="n">
         <v>1</v>
       </c>
-      <c r="D351" t="n">
-        <v/>
-      </c>
       <c r="E351" t="n">
         <v>3</v>
       </c>
@@ -8676,15 +8054,6 @@
           <t>2E4C267E-C419-4B49-8C2E-D19EE3D133C0.jpg</t>
         </is>
       </c>
-      <c r="C354" t="n">
-        <v/>
-      </c>
-      <c r="D354" t="n">
-        <v/>
-      </c>
-      <c r="E354" t="n">
-        <v/>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8692,9 +8061,6 @@
           <t>F2B6048A-D689-46C1-B9B4-ADC4FC5424DF.jpg</t>
         </is>
       </c>
-      <c r="C355" t="n">
-        <v/>
-      </c>
       <c r="D355" t="n">
         <v>39</v>
       </c>
@@ -8760,9 +8126,6 @@
           <t>8DC2E371-9E9A-486F-9A76-5CC61B7B9370.jpg</t>
         </is>
       </c>
-      <c r="C358" t="n">
-        <v/>
-      </c>
       <c r="D358" t="n">
         <v>2</v>
       </c>
@@ -9037,9 +8400,6 @@
       <c r="D369" t="n">
         <v>44</v>
       </c>
-      <c r="E369" t="n">
-        <v/>
-      </c>
       <c r="F369" t="inlineStr">
         <is>
           <t>**GW-7980_LM**,core</t>
@@ -9128,9 +8488,6 @@
       <c r="C373" t="n">
         <v>19</v>
       </c>
-      <c r="D373" t="n">
-        <v/>
-      </c>
       <c r="E373" t="n">
         <v>24</v>
       </c>
@@ -9250,15 +8607,6 @@
           <t>57829C56-8A32-42C7-9E52-9D35F9D3588C.jpg</t>
         </is>
       </c>
-      <c r="C378" t="n">
-        <v/>
-      </c>
-      <c r="D378" t="n">
-        <v/>
-      </c>
-      <c r="E378" t="n">
-        <v/>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -9266,15 +8614,6 @@
           <t>48D40EFB-DF77-4F38-ABBC-832AAD992CF5.jpg</t>
         </is>
       </c>
-      <c r="C379" t="n">
-        <v/>
-      </c>
-      <c r="D379" t="n">
-        <v/>
-      </c>
-      <c r="E379" t="n">
-        <v/>
-      </c>
       <c r="F379" t="inlineStr">
         <is>
           <t>**BESC-127_LM**,core</t>
@@ -9412,15 +8751,6 @@
           <t>3CCB8C54-976F-48A0-8CA4-85DA31842EAE.jpg</t>
         </is>
       </c>
-      <c r="C385" t="n">
-        <v/>
-      </c>
-      <c r="D385" t="n">
-        <v/>
-      </c>
-      <c r="E385" t="n">
-        <v/>
-      </c>
       <c r="F385" t="inlineStr">
         <is>
           <t>ESC-201_LM</t>
@@ -9553,15 +8883,6 @@
           <t>79BF0185-0DE8-4770-8818-ADB04B978FD9.jpg</t>
         </is>
       </c>
-      <c r="C391" t="n">
-        <v/>
-      </c>
-      <c r="D391" t="n">
-        <v/>
-      </c>
-      <c r="E391" t="n">
-        <v/>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9569,9 +8890,6 @@
           <t>9387479F-8C9A-400A-854A-66AFEE39D88C.jpg</t>
         </is>
       </c>
-      <c r="C392" t="n">
-        <v/>
-      </c>
       <c r="D392" t="n">
         <v>27</v>
       </c>
@@ -9621,12 +8939,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C394" t="n">
-        <v/>
-      </c>
-      <c r="D394" t="n">
-        <v/>
-      </c>
       <c r="E394" t="n">
         <v>71</v>
       </c>
@@ -9694,15 +9006,6 @@
           <t>7042142F-B790-4956-BB8D-7B14B2C7B381.jpg</t>
         </is>
       </c>
-      <c r="C397" t="n">
-        <v/>
-      </c>
-      <c r="D397" t="n">
-        <v/>
-      </c>
-      <c r="E397" t="n">
-        <v/>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -9783,9 +9086,6 @@
           <t>267D8996-95EE-44F1-80A0-C943E9F7E816.jpg</t>
         </is>
       </c>
-      <c r="C401" t="n">
-        <v/>
-      </c>
       <c r="D401" t="n">
         <v>6</v>
       </c>
@@ -9856,9 +9156,6 @@
           <t>3F74BD82-E155-4D5C-80A7-A09A7E63CCFF.jpg</t>
         </is>
       </c>
-      <c r="C404" t="n">
-        <v/>
-      </c>
       <c r="D404" t="n">
         <v>1</v>
       </c>
@@ -9898,15 +9195,6 @@
           <t>D95473F0-7364-4BEB-8F7A-94387A821FFC.jpg</t>
         </is>
       </c>
-      <c r="C406" t="n">
-        <v/>
-      </c>
-      <c r="D406" t="n">
-        <v/>
-      </c>
-      <c r="E406" t="n">
-        <v/>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -10313,9 +9601,6 @@
       <c r="C423" t="n">
         <v>1</v>
       </c>
-      <c r="D423" t="n">
-        <v/>
-      </c>
       <c r="E423" t="n">
         <v>16</v>
       </c>
@@ -10555,9 +9840,6 @@
           <t>8B8AAF64-7555-42D3-AAD7-E3C03843E5FD.jpg</t>
         </is>
       </c>
-      <c r="C433" t="n">
-        <v/>
-      </c>
       <c r="D433" t="n">
         <v>2</v>
       </c>
@@ -10602,15 +9884,6 @@
           <t>3C3D3B52-4471-4D01-B4BB-B2397EC2D2C7.jpg</t>
         </is>
       </c>
-      <c r="C435" t="n">
-        <v/>
-      </c>
-      <c r="D435" t="n">
-        <v/>
-      </c>
-      <c r="E435" t="n">
-        <v/>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -10691,15 +9964,6 @@
           <t>DAFB4AAE-6A82-487D-B36C-92D8F71C3A93.jpg</t>
         </is>
       </c>
-      <c r="C439" t="n">
-        <v/>
-      </c>
-      <c r="D439" t="n">
-        <v/>
-      </c>
-      <c r="E439" t="n">
-        <v/>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -10832,15 +10096,6 @@
           <t>599A27AA-FAFB-4050-A3D4-ADAEB2D81B31.jpg</t>
         </is>
       </c>
-      <c r="C445" t="n">
-        <v/>
-      </c>
-      <c r="D445" t="n">
-        <v/>
-      </c>
-      <c r="E445" t="n">
-        <v/>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -10942,9 +10197,6 @@
           <t>0D9BB56E-21D3-44E5-9F01-DCC4517CDCBB.jpg</t>
         </is>
       </c>
-      <c r="C450" t="n">
-        <v/>
-      </c>
       <c r="D450" t="n">
         <v>44</v>
       </c>
@@ -10989,9 +10241,6 @@
           <t>13F418EA-EFCF-487A-8EBF-97B5EC17430F.jpg</t>
         </is>
       </c>
-      <c r="C452" t="n">
-        <v/>
-      </c>
       <c r="D452" t="n">
         <v>45</v>
       </c>
@@ -11036,12 +10285,6 @@
           <t>0D8D7154-C75B-40C5-89AF-01C08831CD51.jpg</t>
         </is>
       </c>
-      <c r="C454" t="n">
-        <v/>
-      </c>
-      <c r="D454" t="n">
-        <v/>
-      </c>
       <c r="E454" t="n">
         <v>24</v>
       </c>
@@ -11104,15 +10347,6 @@
           <t>640B5B57-2E7C-4451-BDF2-60B6420367E9.jpg</t>
         </is>
       </c>
-      <c r="C457" t="n">
-        <v/>
-      </c>
-      <c r="D457" t="n">
-        <v/>
-      </c>
-      <c r="E457" t="n">
-        <v/>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -11146,15 +10380,6 @@
           <t>C7FAABC8-4B08-4036-B475-809C7CD913FD.jpg</t>
         </is>
       </c>
-      <c r="C459" t="n">
-        <v/>
-      </c>
-      <c r="D459" t="n">
-        <v/>
-      </c>
-      <c r="E459" t="n">
-        <v/>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -11464,9 +10689,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C472" t="n">
-        <v/>
-      </c>
       <c r="D472" t="n">
         <v>2</v>
       </c>
@@ -11537,9 +10759,6 @@
           <t>B52C9299-6FAC-4519-942F-2AB31CF2F6FF.jpg</t>
         </is>
       </c>
-      <c r="C475" t="n">
-        <v/>
-      </c>
       <c r="D475" t="n">
         <v>4</v>
       </c>
@@ -11579,15 +10798,6 @@
           <t>1D166A53-97D7-4EB7-B6F7-1DE4463018F2.jpg</t>
         </is>
       </c>
-      <c r="C477" t="n">
-        <v/>
-      </c>
-      <c r="D477" t="n">
-        <v/>
-      </c>
-      <c r="E477" t="n">
-        <v/>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -11658,9 +10868,6 @@
       <c r="D480" t="n">
         <v>78</v>
       </c>
-      <c r="E480" t="n">
-        <v/>
-      </c>
       <c r="F480" t="inlineStr">
         <is>
           <t>BESC-121_LM</t>
@@ -11725,9 +10932,6 @@
           <t>CBF4EB2E-5083-4022-A294-A4792F341A70.jpg</t>
         </is>
       </c>
-      <c r="C483" t="n">
-        <v/>
-      </c>
       <c r="D483" t="n">
         <v>35</v>
       </c>
@@ -11746,12 +10950,6 @@
           <t>F6E9A65D-EB7F-4542-A72E-33DDA6062FA0.jpg</t>
         </is>
       </c>
-      <c r="C484" t="n">
-        <v/>
-      </c>
-      <c r="D484" t="n">
-        <v/>
-      </c>
       <c r="E484" t="n">
         <v>2</v>
       </c>
@@ -11848,9 +11046,6 @@
       <c r="C488" t="n">
         <v>1</v>
       </c>
-      <c r="D488" t="n">
-        <v/>
-      </c>
       <c r="E488" t="n">
         <v>2</v>
       </c>
@@ -11991,9 +11186,6 @@
           <t>81C0057C-F034-40F5-8672-61287D1B53CF.jpg</t>
         </is>
       </c>
-      <c r="C494" t="n">
-        <v/>
-      </c>
       <c r="D494" t="n">
         <v>1</v>
       </c>
@@ -12163,9 +11355,6 @@
           <t>E9310CF5-7E35-42CE-AC2F-3C212F5408EC.jpg</t>
         </is>
       </c>
-      <c r="C501" t="n">
-        <v/>
-      </c>
       <c r="D501" t="n">
         <v>45</v>
       </c>
@@ -12288,12 +11477,6 @@
           <t>ED4A9F8D-40E8-4732-94C0-0D66995E273B.jpg</t>
         </is>
       </c>
-      <c r="C506" t="n">
-        <v/>
-      </c>
-      <c r="D506" t="n">
-        <v/>
-      </c>
       <c r="E506" t="n">
         <v>34</v>
       </c>
@@ -12361,12 +11544,6 @@
           <t>C47BA2BC-1547-41CC-AD14-DD6740A2BE63.jpg</t>
         </is>
       </c>
-      <c r="C509" t="n">
-        <v/>
-      </c>
-      <c r="D509" t="n">
-        <v/>
-      </c>
       <c r="E509" t="n">
         <v>8</v>
       </c>
@@ -12434,9 +11611,6 @@
           <t>5C0A8637-E5DD-4754-8FD7-D14EB3AC95A7.jpg</t>
         </is>
       </c>
-      <c r="C512" t="n">
-        <v/>
-      </c>
       <c r="D512" t="n">
         <v>6</v>
       </c>
@@ -12581,9 +11755,6 @@
       <c r="D518" t="n">
         <v>27</v>
       </c>
-      <c r="E518" t="n">
-        <v/>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -12654,9 +11825,6 @@
       <c r="D521" t="n">
         <v>34</v>
       </c>
-      <c r="E521" t="n">
-        <v/>
-      </c>
       <c r="F521" t="inlineStr">
         <is>
           <t>**BESC-1211_36_10**,core</t>
@@ -12841,15 +12009,6 @@
           <t>657B45EE-8295-4294-9537-3A3F23AAFD55.jpg</t>
         </is>
       </c>
-      <c r="C529" t="n">
-        <v/>
-      </c>
-      <c r="D529" t="n">
-        <v/>
-      </c>
-      <c r="E529" t="n">
-        <v/>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -12857,15 +12016,6 @@
           <t>28497529-901D-437F-ACCD-568DEB6261FF.jpg</t>
         </is>
       </c>
-      <c r="C530" t="n">
-        <v/>
-      </c>
-      <c r="D530" t="n">
-        <v/>
-      </c>
-      <c r="E530" t="n">
-        <v/>
-      </c>
       <c r="F530" t="inlineStr">
         <is>
           <t>**BESC-450_LM**,core</t>
@@ -13295,9 +12445,6 @@
       <c r="D547" t="n">
         <v>5</v>
       </c>
-      <c r="E547" t="n">
-        <v/>
-      </c>
       <c r="F547" t="inlineStr">
         <is>
           <t>GW-6915_WP</t>
@@ -13336,15 +12483,6 @@
           <t>0636E885-18D0-4663-AAB4-EEF8D65F8C27.jpg</t>
         </is>
       </c>
-      <c r="C549" t="n">
-        <v/>
-      </c>
-      <c r="D549" t="n">
-        <v/>
-      </c>
-      <c r="E549" t="n">
-        <v/>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -13399,15 +12537,6 @@
           <t>4173F512-8AB3-4B22-9181-48F02CE6F2B5.jpg</t>
         </is>
       </c>
-      <c r="C552" t="n">
-        <v/>
-      </c>
-      <c r="D552" t="n">
-        <v/>
-      </c>
-      <c r="E552" t="n">
-        <v/>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -13415,9 +12544,6 @@
           <t>AC8D14FE-7D87-407A-9BF9-7108EB2412D3.jpg</t>
         </is>
       </c>
-      <c r="C553" t="n">
-        <v/>
-      </c>
       <c r="D553" t="n">
         <v>7</v>
       </c>
@@ -13462,15 +12588,6 @@
           <t>7267144C-32A6-42FB-B18A-EA8F573E6865.jpg</t>
         </is>
       </c>
-      <c r="C555" t="n">
-        <v/>
-      </c>
-      <c r="D555" t="n">
-        <v/>
-      </c>
-      <c r="E555" t="n">
-        <v/>
-      </c>
       <c r="F555" t="inlineStr">
         <is>
           <t>**SLMC-28-3**,core</t>
@@ -13483,12 +12600,6 @@
           <t>DE52C11A-3993-42E9-A8D8-66A008F983FE.jpg</t>
         </is>
       </c>
-      <c r="C556" t="n">
-        <v/>
-      </c>
-      <c r="D556" t="n">
-        <v/>
-      </c>
       <c r="E556" t="n">
         <v>11</v>
       </c>
@@ -13530,15 +12641,6 @@
           <t>B9D7A386-5A27-49F0-AB82-C05AD27D0D9D.jpg</t>
         </is>
       </c>
-      <c r="C558" t="n">
-        <v/>
-      </c>
-      <c r="D558" t="n">
-        <v/>
-      </c>
-      <c r="E558" t="n">
-        <v/>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -13749,15 +12851,6 @@
           <t>A4A6EB92-62B0-429F-AEAC-F90EC70FD73B.jpg</t>
         </is>
       </c>
-      <c r="C567" t="n">
-        <v/>
-      </c>
-      <c r="D567" t="n">
-        <v/>
-      </c>
-      <c r="E567" t="n">
-        <v/>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -13916,15 +13009,6 @@
           <t>1B1669BC-C180-4A67-BEBF-F16BDDE2640F.jpg</t>
         </is>
       </c>
-      <c r="C574" t="n">
-        <v/>
-      </c>
-      <c r="D574" t="n">
-        <v/>
-      </c>
-      <c r="E574" t="n">
-        <v/>
-      </c>
       <c r="F574" t="inlineStr">
         <is>
           <t>LND-20-1</t>
@@ -13937,9 +13021,6 @@
           <t>EE17B0C3-500F-4029-9955-C6451B41D30F.jpg</t>
         </is>
       </c>
-      <c r="C575" t="n">
-        <v/>
-      </c>
       <c r="D575" t="n">
         <v>31</v>
       </c>
@@ -13958,15 +13039,9 @@
           <t>82ECA7E7-FEB7-4F3D-BCD4-07B54240ADEA.jpg</t>
         </is>
       </c>
-      <c r="C576" t="n">
-        <v/>
-      </c>
       <c r="D576" t="n">
         <v>33</v>
       </c>
-      <c r="E576" t="n">
-        <v/>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -14182,12 +13257,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C585" t="n">
-        <v/>
-      </c>
-      <c r="D585" t="n">
-        <v/>
-      </c>
       <c r="E585" t="n">
         <v>50</v>
       </c>
@@ -14260,9 +13329,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C588" t="n">
-        <v/>
-      </c>
       <c r="D588" t="n">
         <v>10</v>
       </c>
@@ -14286,15 +13352,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C589" t="n">
-        <v/>
-      </c>
-      <c r="D589" t="n">
-        <v/>
-      </c>
-      <c r="E589" t="n">
-        <v/>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -14302,15 +13359,6 @@
           <t>56EE6488-1428-4DD3-BEE0-EAB5B37794A1.jpg</t>
         </is>
       </c>
-      <c r="C590" t="n">
-        <v/>
-      </c>
-      <c r="D590" t="n">
-        <v/>
-      </c>
-      <c r="E590" t="n">
-        <v/>
-      </c>
       <c r="F590" t="inlineStr">
         <is>
           <t>**SKWB-24-2_LN**,core</t>
@@ -14323,15 +13371,6 @@
           <t>65537A51-BD4D-47EB-8EED-0B2DDD158C1C.jpg</t>
         </is>
       </c>
-      <c r="C591" t="n">
-        <v/>
-      </c>
-      <c r="D591" t="n">
-        <v/>
-      </c>
-      <c r="E591" t="n">
-        <v/>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -14438,15 +13477,6 @@
           <t>41FCCB44-8AD8-4FE2-8245-88274EE2C636.jpg</t>
         </is>
       </c>
-      <c r="C596" t="n">
-        <v/>
-      </c>
-      <c r="D596" t="n">
-        <v/>
-      </c>
-      <c r="E596" t="n">
-        <v/>
-      </c>
       <c r="F596" t="inlineStr">
         <is>
           <t>BESC-1159_3410</t>
@@ -14485,9 +13515,6 @@
           <t>3A87435F-B755-40C6-A69E-9B3AFB3E5CE7.jpg</t>
         </is>
       </c>
-      <c r="C598" t="n">
-        <v/>
-      </c>
       <c r="D598" t="n">
         <v>32</v>
       </c>
@@ -14636,15 +13663,9 @@
           <t>A31903B2-CF73-4F6C-978D-C5D8B6F767FD.jpg</t>
         </is>
       </c>
-      <c r="C604" t="n">
-        <v/>
-      </c>
       <c r="D604" t="n">
         <v>809</v>
       </c>
-      <c r="E604" t="n">
-        <v/>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -14782,15 +13803,6 @@
           <t>36010B30-51FB-44E5-8435-13D357096939.jpg</t>
         </is>
       </c>
-      <c r="C610" t="n">
-        <v/>
-      </c>
-      <c r="D610" t="n">
-        <v/>
-      </c>
-      <c r="E610" t="n">
-        <v/>
-      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -14824,9 +13836,6 @@
           <t>79CF4D69-B57C-4B9E-B6F6-43ABD73A9C67.jpg</t>
         </is>
       </c>
-      <c r="C612" t="n">
-        <v/>
-      </c>
       <c r="D612" t="n">
         <v>2</v>
       </c>
@@ -14866,12 +13875,6 @@
           <t>715BCF27-FE4D-4914-B116-86EFF4569612.jpg</t>
         </is>
       </c>
-      <c r="C614" t="n">
-        <v/>
-      </c>
-      <c r="D614" t="n">
-        <v/>
-      </c>
       <c r="E614" t="n">
         <v>32</v>
       </c>
@@ -14908,15 +13911,6 @@
           <t>C42A9EF4-74EB-409E-B9E3-440E5944332A.jpg</t>
         </is>
       </c>
-      <c r="C616" t="n">
-        <v/>
-      </c>
-      <c r="D616" t="n">
-        <v/>
-      </c>
-      <c r="E616" t="n">
-        <v/>
-      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -14924,15 +13918,6 @@
           <t>5936339A-E609-4C40-8F4B-DB8D3B4B3A2B.jpg</t>
         </is>
       </c>
-      <c r="C617" t="n">
-        <v/>
-      </c>
-      <c r="D617" t="n">
-        <v/>
-      </c>
-      <c r="E617" t="n">
-        <v/>
-      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -14987,9 +13972,6 @@
           <t>2B3BAAEB-DE8E-4078-B86D-4A850E3A96F6.jpg</t>
         </is>
       </c>
-      <c r="C620" t="n">
-        <v/>
-      </c>
       <c r="D620" t="n">
         <v>33</v>
       </c>
@@ -15112,9 +14094,6 @@
           <t>87C496ED-17B7-47E3-A66F-56846A631E03.jpg</t>
         </is>
       </c>
-      <c r="C625" t="n">
-        <v/>
-      </c>
       <c r="D625" t="n">
         <v>14</v>
       </c>
@@ -15227,15 +14206,6 @@
           <t>060F1E48-FBDF-45D9-B036-234E25CEFB7B.jpg</t>
         </is>
       </c>
-      <c r="C630" t="n">
-        <v/>
-      </c>
-      <c r="D630" t="n">
-        <v/>
-      </c>
-      <c r="E630" t="n">
-        <v/>
-      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -15243,15 +14213,6 @@
           <t>6A95EC24-C226-453B-BBF8-B83F2F0AB477.jpg</t>
         </is>
       </c>
-      <c r="C631" t="n">
-        <v/>
-      </c>
-      <c r="D631" t="n">
-        <v/>
-      </c>
-      <c r="E631" t="n">
-        <v/>
-      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -15337,15 +14298,6 @@
           <t>0783B8E4-8189-402B-85D8-2215326B3E80.jpg</t>
         </is>
       </c>
-      <c r="C635" t="n">
-        <v/>
-      </c>
-      <c r="D635" t="n">
-        <v/>
-      </c>
-      <c r="E635" t="n">
-        <v/>
-      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -15770,15 +14722,6 @@
           <t>9277998C-6989-4340-9981-9D00E9FCB87D.jpg</t>
         </is>
       </c>
-      <c r="C653" t="n">
-        <v/>
-      </c>
-      <c r="D653" t="n">
-        <v/>
-      </c>
-      <c r="E653" t="n">
-        <v/>
-      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -15854,9 +14797,6 @@
           <t>24A8F7B3-8212-4F7B-A27C-2D1D7076CF55.jpg</t>
         </is>
       </c>
-      <c r="C657" t="n">
-        <v/>
-      </c>
       <c r="D657" t="n">
         <v>39</v>
       </c>
@@ -16135,15 +15075,6 @@
           <t>A2AA3105-9590-4FE2-99E5-3AEBF502FA60.jpg</t>
         </is>
       </c>
-      <c r="C668" t="n">
-        <v/>
-      </c>
-      <c r="D668" t="n">
-        <v/>
-      </c>
-      <c r="E668" t="n">
-        <v/>
-      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -16151,15 +15082,6 @@
           <t>5CC2E7F9-0D41-4A49-922F-413E26D98243.jpg</t>
         </is>
       </c>
-      <c r="C669" t="n">
-        <v/>
-      </c>
-      <c r="D669" t="n">
-        <v/>
-      </c>
-      <c r="E669" t="n">
-        <v/>
-      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -16464,9 +15386,6 @@
           <t>7CA297C6-64B1-4671-ADA3-09B21538327D.jpg</t>
         </is>
       </c>
-      <c r="C682" t="n">
-        <v/>
-      </c>
       <c r="D682" t="n">
         <v>14</v>
       </c>
@@ -16667,9 +15586,6 @@
           <t>98E20FB2-D8E1-4785-B1B3-32E2A75CC90F.jpg</t>
         </is>
       </c>
-      <c r="C690" t="n">
-        <v/>
-      </c>
       <c r="D690" t="n">
         <v>8</v>
       </c>
@@ -16688,15 +15604,6 @@
           <t>68BB8423-C493-433B-A05D-AD073916CCE2.jpg</t>
         </is>
       </c>
-      <c r="C691" t="n">
-        <v/>
-      </c>
-      <c r="D691" t="n">
-        <v/>
-      </c>
-      <c r="E691" t="n">
-        <v/>
-      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -16850,15 +15757,6 @@
           <t>E1D6D3D3-C2B3-41A4-9ECF-B94A965512DA.jpg</t>
         </is>
       </c>
-      <c r="C698" t="n">
-        <v/>
-      </c>
-      <c r="D698" t="n">
-        <v/>
-      </c>
-      <c r="E698" t="n">
-        <v/>
-      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -17111,15 +16009,6 @@
           <t>E96D1072-A510-4920-A45E-640E2D54CF60.jpg</t>
         </is>
       </c>
-      <c r="C709" t="n">
-        <v/>
-      </c>
-      <c r="D709" t="n">
-        <v/>
-      </c>
-      <c r="E709" t="n">
-        <v/>
-      </c>
       <c r="F709" t="inlineStr">
         <is>
           <t>**BESC-181**,core</t>
@@ -17283,15 +16172,6 @@
           <t>9154C9E0-D210-4056-B73E-497E10D61DA0.jpg</t>
         </is>
       </c>
-      <c r="C716" t="n">
-        <v/>
-      </c>
-      <c r="D716" t="n">
-        <v/>
-      </c>
-      <c r="E716" t="n">
-        <v/>
-      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -17299,9 +16179,6 @@
           <t>B7D33D46-9BF8-4AF9-9BEA-6E4709D6543F.jpg</t>
         </is>
       </c>
-      <c r="C717" t="n">
-        <v/>
-      </c>
       <c r="D717" t="n">
         <v>6</v>
       </c>
@@ -17424,15 +16301,6 @@
           <t>54B5ADFA-7A6E-4E03-812A-249F4BEAE62D.jpg</t>
         </is>
       </c>
-      <c r="C722" t="n">
-        <v/>
-      </c>
-      <c r="D722" t="n">
-        <v/>
-      </c>
-      <c r="E722" t="n">
-        <v/>
-      </c>
       <c r="F722" t="inlineStr">
         <is>
           <t>BESC-306_LM</t>
@@ -17570,9 +16438,6 @@
           <t>FB3D5230-E2DE-4585-A4C1-B5E29775F702.jpg</t>
         </is>
       </c>
-      <c r="C728" t="n">
-        <v/>
-      </c>
       <c r="D728" t="n">
         <v>28</v>
       </c>
@@ -17599,9 +16464,6 @@
       <c r="C729" t="n">
         <v>1</v>
       </c>
-      <c r="D729" t="n">
-        <v/>
-      </c>
       <c r="E729" t="n">
         <v>47</v>
       </c>
@@ -17747,9 +16609,6 @@
           <t>44B78D78-27AA-4374-BBA9-5956808BE5DE.jpg</t>
         </is>
       </c>
-      <c r="C735" t="n">
-        <v/>
-      </c>
       <c r="D735" t="n">
         <v>39</v>
       </c>
@@ -17789,15 +16648,6 @@
           <t>17D79A37-4FF0-48A2-AC34-EF261DA02671.jpg</t>
         </is>
       </c>
-      <c r="C737" t="n">
-        <v/>
-      </c>
-      <c r="D737" t="n">
-        <v/>
-      </c>
-      <c r="E737" t="n">
-        <v/>
-      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -17805,15 +16655,6 @@
           <t>639ED524-9842-4FBC-9A8F-11B3CE68E04A.jpg</t>
         </is>
       </c>
-      <c r="C738" t="n">
-        <v/>
-      </c>
-      <c r="D738" t="n">
-        <v/>
-      </c>
-      <c r="E738" t="n">
-        <v/>
-      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -17847,15 +16688,6 @@
           <t>86174988-CFAD-43BE-A979-337285D89934.jpg</t>
         </is>
       </c>
-      <c r="C740" t="n">
-        <v/>
-      </c>
-      <c r="D740" t="n">
-        <v/>
-      </c>
-      <c r="E740" t="n">
-        <v/>
-      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -17889,15 +16721,6 @@
           <t>2F92E6A2-E827-4BCC-A706-04CD43C47029.jpg</t>
         </is>
       </c>
-      <c r="C742" t="n">
-        <v/>
-      </c>
-      <c r="D742" t="n">
-        <v/>
-      </c>
-      <c r="E742" t="n">
-        <v/>
-      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -17905,15 +16728,6 @@
           <t>ED681F8D-E2D5-41CC-B242-F073D521DFDF.jpg</t>
         </is>
       </c>
-      <c r="C743" t="n">
-        <v/>
-      </c>
-      <c r="D743" t="n">
-        <v/>
-      </c>
-      <c r="E743" t="n">
-        <v/>
-      </c>
       <c r="F743" t="inlineStr">
         <is>
           <t>GW-98411</t>
@@ -18004,15 +16818,6 @@
           <t>1A3532F5-B5FA-4567-AFDB-3AFF51384BE9.jpg</t>
         </is>
       </c>
-      <c r="C747" t="n">
-        <v/>
-      </c>
-      <c r="D747" t="n">
-        <v/>
-      </c>
-      <c r="E747" t="n">
-        <v/>
-      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -18344,9 +17149,6 @@
       <c r="D761" t="n">
         <v>27</v>
       </c>
-      <c r="E761" t="n">
-        <v/>
-      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -18354,15 +17156,6 @@
           <t>C66DEC4B-15FD-4003-959A-7FAF06911199.jpg</t>
         </is>
       </c>
-      <c r="C762" t="n">
-        <v/>
-      </c>
-      <c r="D762" t="n">
-        <v/>
-      </c>
-      <c r="E762" t="n">
-        <v/>
-      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -18547,12 +17340,6 @@
           <t>C3896D6C-4A37-4303-BAC6-800AE125D0B5.jpg</t>
         </is>
       </c>
-      <c r="C770" t="n">
-        <v/>
-      </c>
-      <c r="D770" t="n">
-        <v/>
-      </c>
       <c r="E770" t="n">
         <v>11</v>
       </c>
@@ -18568,15 +17355,6 @@
           <t>4888B55C-433A-4D3B-AAD5-C650126D64BC.jpg</t>
         </is>
       </c>
-      <c r="C771" t="n">
-        <v/>
-      </c>
-      <c r="D771" t="n">
-        <v/>
-      </c>
-      <c r="E771" t="n">
-        <v/>
-      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -18636,15 +17414,6 @@
           <t>79CF3EB7-4C7E-4FAC-9130-47ABDA9AC74F.jpg</t>
         </is>
       </c>
-      <c r="C774" t="n">
-        <v/>
-      </c>
-      <c r="D774" t="n">
-        <v/>
-      </c>
-      <c r="E774" t="n">
-        <v/>
-      </c>
       <c r="F774" t="inlineStr">
         <is>
           <t>**SQMB-25-1**,core</t>
@@ -18688,9 +17457,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C776" t="n">
-        <v/>
-      </c>
       <c r="D776" t="n">
         <v>8</v>
       </c>
@@ -18756,15 +17522,6 @@
           <t>E4F5F63E-5BF4-4A04-8ED9-9F8562A5E88F.jpg</t>
         </is>
       </c>
-      <c r="C779" t="n">
-        <v/>
-      </c>
-      <c r="D779" t="n">
-        <v/>
-      </c>
-      <c r="E779" t="n">
-        <v/>
-      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -18850,15 +17607,6 @@
           <t>E464A8A3-A4FC-4AE9-A179-236C5659917F.jpg</t>
         </is>
       </c>
-      <c r="C783" t="n">
-        <v/>
-      </c>
-      <c r="D783" t="n">
-        <v/>
-      </c>
-      <c r="E783" t="n">
-        <v/>
-      </c>
       <c r="F783" t="inlineStr">
         <is>
           <t>**GW-9873_LM**,core</t>
@@ -19001,15 +17749,6 @@
           <t>7FC583DA-E11E-4D79-B15A-9EFA3EC08061.jpg</t>
         </is>
       </c>
-      <c r="C789" t="n">
-        <v/>
-      </c>
-      <c r="D789" t="n">
-        <v/>
-      </c>
-      <c r="E789" t="n">
-        <v/>
-      </c>
       <c r="F789" t="inlineStr">
         <is>
           <t>**BESC-150**,core</t>
@@ -19152,15 +17891,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C795" t="n">
-        <v/>
-      </c>
-      <c r="D795" t="n">
-        <v/>
-      </c>
-      <c r="E795" t="n">
-        <v/>
-      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -19173,12 +17903,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C796" t="n">
-        <v/>
-      </c>
-      <c r="D796" t="n">
-        <v/>
-      </c>
       <c r="E796" t="n">
         <v>73</v>
       </c>
@@ -19194,15 +17918,6 @@
           <t>3FBC79FF-9555-4539-BD3A-B1113EBFE931.jpg</t>
         </is>
       </c>
-      <c r="C797" t="n">
-        <v/>
-      </c>
-      <c r="D797" t="n">
-        <v/>
-      </c>
-      <c r="E797" t="n">
-        <v/>
-      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -19293,15 +18008,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C801" t="n">
-        <v/>
-      </c>
-      <c r="D801" t="n">
-        <v/>
-      </c>
-      <c r="E801" t="n">
-        <v/>
-      </c>
       <c r="F801" t="inlineStr">
         <is>
           <t>GW-2063_WP</t>
@@ -19392,15 +18098,6 @@
           <t>F758DA25-DB22-443D-B5A9-65E3A069E0F1.jpg</t>
         </is>
       </c>
-      <c r="C805" t="n">
-        <v/>
-      </c>
-      <c r="D805" t="n">
-        <v/>
-      </c>
-      <c r="E805" t="n">
-        <v/>
-      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -19580,12 +18277,6 @@
           <t>20DB1153-0E9E-4761-ACF1-B04F9822D92E.jpg</t>
         </is>
       </c>
-      <c r="C813" t="n">
-        <v/>
-      </c>
-      <c r="D813" t="n">
-        <v/>
-      </c>
       <c r="E813" t="n">
         <v>13</v>
       </c>
@@ -19781,9 +18472,6 @@
       <c r="C821" t="n">
         <v>1</v>
       </c>
-      <c r="D821" t="n">
-        <v/>
-      </c>
       <c r="E821" t="n">
         <v>2</v>
       </c>
@@ -19825,15 +18513,6 @@
           <t>B3C9A03B-522D-4E0B-88FE-06FFD9476BBF.jpg</t>
         </is>
       </c>
-      <c r="C823" t="n">
-        <v/>
-      </c>
-      <c r="D823" t="n">
-        <v/>
-      </c>
-      <c r="E823" t="n">
-        <v/>
-      </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -19841,9 +18520,6 @@
           <t>9174032C-58DF-4BF5-B610-B5085F7D96E1.jpg</t>
         </is>
       </c>
-      <c r="C824" t="n">
-        <v/>
-      </c>
       <c r="D824" t="n">
         <v>11</v>
       </c>
@@ -19888,12 +18564,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C826" t="n">
-        <v/>
-      </c>
-      <c r="D826" t="n">
-        <v/>
-      </c>
       <c r="E826" t="n">
         <v>63</v>
       </c>
@@ -19972,15 +18642,6 @@
           <t>37CB8CD1-AC34-4A77-8A49-1D3FBD6216D5.jpg</t>
         </is>
       </c>
-      <c r="C830" t="n">
-        <v/>
-      </c>
-      <c r="D830" t="n">
-        <v/>
-      </c>
-      <c r="E830" t="n">
-        <v/>
-      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -20040,9 +18701,6 @@
           <t>7BFCCC6C-3A43-4599-9632-35FD1AD3692F.jpg</t>
         </is>
       </c>
-      <c r="C833" t="n">
-        <v/>
-      </c>
       <c r="D833" t="n">
         <v>42</v>
       </c>
@@ -20371,12 +19029,6 @@
       <c r="C846" t="n">
         <v>28</v>
       </c>
-      <c r="D846" t="n">
-        <v/>
-      </c>
-      <c r="E846" t="n">
-        <v/>
-      </c>
       <c r="F846" t="inlineStr">
         <is>
           <t>GW-9813_LM</t>
@@ -20436,15 +19088,6 @@
           <t>C2834F24-2544-4681-9C79-719EA29A5589.jpg</t>
         </is>
       </c>
-      <c r="C849" t="n">
-        <v/>
-      </c>
-      <c r="D849" t="n">
-        <v/>
-      </c>
-      <c r="E849" t="n">
-        <v/>
-      </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -20478,15 +19121,6 @@
           <t>2AC25214-57B5-4CEC-A0B4-070D6ECE8193.jpg</t>
         </is>
       </c>
-      <c r="C851" t="n">
-        <v/>
-      </c>
-      <c r="D851" t="n">
-        <v/>
-      </c>
-      <c r="E851" t="n">
-        <v/>
-      </c>
       <c r="F851" t="inlineStr">
         <is>
           <t>**CA-04_03_LM**,core</t>
@@ -20575,12 +19209,6 @@
       <c r="C855" t="n">
         <v>19</v>
       </c>
-      <c r="D855" t="n">
-        <v/>
-      </c>
-      <c r="E855" t="n">
-        <v/>
-      </c>
       <c r="F855" t="inlineStr">
         <is>
           <t>BESC-417</t>
@@ -20744,15 +19372,6 @@
           <t>73311B03-7578-4919-98A2-3239395B37BD.jpg</t>
         </is>
       </c>
-      <c r="C862" t="n">
-        <v/>
-      </c>
-      <c r="D862" t="n">
-        <v/>
-      </c>
-      <c r="E862" t="n">
-        <v/>
-      </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -21051,9 +19670,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C874" t="n">
-        <v/>
-      </c>
       <c r="D874" t="n">
         <v>1</v>
       </c>
@@ -21197,12 +19813,6 @@
           <t>8733AF71-2AAC-4A66-9141-77E34EDEFE69.jpg</t>
         </is>
       </c>
-      <c r="C880" t="n">
-        <v/>
-      </c>
-      <c r="D880" t="n">
-        <v/>
-      </c>
       <c r="E880" t="n">
         <v>36</v>
       </c>
@@ -21244,15 +19854,6 @@
           <t>912770C1-959B-4E5C-8FEC-C8D7B8095694.jpg</t>
         </is>
       </c>
-      <c r="C882" t="n">
-        <v/>
-      </c>
-      <c r="D882" t="n">
-        <v/>
-      </c>
-      <c r="E882" t="n">
-        <v/>
-      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -21260,15 +19861,6 @@
           <t>AE4F3951-DF40-4090-B4B6-6D1CC9801C3E.jpg</t>
         </is>
       </c>
-      <c r="C883" t="n">
-        <v/>
-      </c>
-      <c r="D883" t="n">
-        <v/>
-      </c>
-      <c r="E883" t="n">
-        <v/>
-      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -21349,15 +19941,6 @@
           <t>C2254B4D-26DA-45E1-BD3E-5CE7660DCE2D.jpg</t>
         </is>
       </c>
-      <c r="C887" t="n">
-        <v/>
-      </c>
-      <c r="D887" t="n">
-        <v/>
-      </c>
-      <c r="E887" t="n">
-        <v/>
-      </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -21443,9 +20026,6 @@
           <t>B56DCFC4-F881-47A2-A30C-E8AA67551543.jpg</t>
         </is>
       </c>
-      <c r="C891" t="n">
-        <v/>
-      </c>
       <c r="D891" t="n">
         <v>43</v>
       </c>
@@ -21558,15 +20138,6 @@
           <t>370F7A2F-C0B4-4780-B3CF-7728E0A17630.jpg</t>
         </is>
       </c>
-      <c r="C896" t="n">
-        <v/>
-      </c>
-      <c r="D896" t="n">
-        <v/>
-      </c>
-      <c r="E896" t="n">
-        <v/>
-      </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -21582,9 +20153,6 @@
       <c r="C897" t="n">
         <v>1</v>
       </c>
-      <c r="D897" t="n">
-        <v/>
-      </c>
       <c r="E897" t="n">
         <v>8</v>
       </c>
@@ -21829,15 +20397,6 @@
           <t>F7B3CAEB-92CC-4E90-BE0B-A94FCC7CBCD4.jpg</t>
         </is>
       </c>
-      <c r="C907" t="n">
-        <v/>
-      </c>
-      <c r="D907" t="n">
-        <v/>
-      </c>
-      <c r="E907" t="n">
-        <v/>
-      </c>
       <c r="F907" t="inlineStr">
         <is>
           <t>BESC-12_1_10_C</t>
@@ -21907,12 +20466,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C910" t="n">
-        <v/>
-      </c>
-      <c r="D910" t="n">
-        <v/>
-      </c>
       <c r="E910" t="n">
         <v>28</v>
       </c>
@@ -22074,9 +20627,6 @@
           <t>F38F6B4B-A42D-4306-A4D1-81234BBC6944.jpg</t>
         </is>
       </c>
-      <c r="C917" t="n">
-        <v/>
-      </c>
       <c r="D917" t="n">
         <v>41</v>
       </c>
@@ -22142,9 +20692,6 @@
           <t>743982AF-2B75-45D2-96E8-9FADEEBDDEAB.jpg</t>
         </is>
       </c>
-      <c r="C920" t="n">
-        <v/>
-      </c>
       <c r="D920" t="n">
         <v>41</v>
       </c>
@@ -22241,15 +20788,6 @@
           <t>11081050-682A-4205-8AD2-0BA9279477DA.jpg</t>
         </is>
       </c>
-      <c r="C924" t="n">
-        <v/>
-      </c>
-      <c r="D924" t="n">
-        <v/>
-      </c>
-      <c r="E924" t="n">
-        <v/>
-      </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -22283,9 +20821,6 @@
           <t>9412B5A8-5F1C-4586-AFBF-832849F24B08.jpg</t>
         </is>
       </c>
-      <c r="C926" t="n">
-        <v/>
-      </c>
       <c r="D926" t="n">
         <v>45</v>
       </c>
@@ -22419,9 +20954,6 @@
       <c r="D931" t="n">
         <v>33</v>
       </c>
-      <c r="E931" t="n">
-        <v/>
-      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -22429,15 +20961,6 @@
           <t>B7D40579-36CD-4476-A9D4-9CB9A296FFB0.jpg</t>
         </is>
       </c>
-      <c r="C932" t="n">
-        <v/>
-      </c>
-      <c r="D932" t="n">
-        <v/>
-      </c>
-      <c r="E932" t="n">
-        <v/>
-      </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -22487,15 +21010,6 @@
           <t>012092E0-1D9E-48F7-8C0B-D39B3454F023.jpg</t>
         </is>
       </c>
-      <c r="C935" t="n">
-        <v/>
-      </c>
-      <c r="D935" t="n">
-        <v/>
-      </c>
-      <c r="E935" t="n">
-        <v/>
-      </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
@@ -22602,15 +21116,6 @@
           <t>4D149248-0A4C-4ED3-9128-048AC169B28A.jpg</t>
         </is>
       </c>
-      <c r="C940" t="n">
-        <v/>
-      </c>
-      <c r="D940" t="n">
-        <v/>
-      </c>
-      <c r="E940" t="n">
-        <v/>
-      </c>
       <c r="F940" t="inlineStr">
         <is>
           <t>BESC-1013_26_10</t>
@@ -22675,15 +21180,6 @@
           <t>DFA68C0C-7887-4721-A6F5-22069C1ED1BB.jpg</t>
         </is>
       </c>
-      <c r="C943" t="n">
-        <v/>
-      </c>
-      <c r="D943" t="n">
-        <v/>
-      </c>
-      <c r="E943" t="n">
-        <v/>
-      </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -22717,12 +21213,6 @@
           <t>88CFECE4-1C49-4151-B514-158DC8920679.jpg</t>
         </is>
       </c>
-      <c r="C945" t="n">
-        <v/>
-      </c>
-      <c r="D945" t="n">
-        <v/>
-      </c>
       <c r="E945" t="n">
         <v>22</v>
       </c>
@@ -22785,15 +21275,6 @@
           <t>929EE277-94CD-48C6-880C-07A20FB686CD.jpg</t>
         </is>
       </c>
-      <c r="C948" t="n">
-        <v/>
-      </c>
-      <c r="D948" t="n">
-        <v/>
-      </c>
-      <c r="E948" t="n">
-        <v/>
-      </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -22874,15 +21355,6 @@
           <t>FB4BE4EC-DDA7-40D1-AB21-21483274BC43.jpg</t>
         </is>
       </c>
-      <c r="C952" t="n">
-        <v/>
-      </c>
-      <c r="D952" t="n">
-        <v/>
-      </c>
-      <c r="E952" t="n">
-        <v/>
-      </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
@@ -23213,15 +21685,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C966" t="n">
-        <v/>
-      </c>
-      <c r="D966" t="n">
-        <v/>
-      </c>
-      <c r="E966" t="n">
-        <v/>
-      </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -23302,15 +21765,6 @@
           <t>82633F9F-A68D-416E-A8C5-936B61F010AD.jpg</t>
         </is>
       </c>
-      <c r="C970" t="n">
-        <v/>
-      </c>
-      <c r="D970" t="n">
-        <v/>
-      </c>
-      <c r="E970" t="n">
-        <v/>
-      </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
@@ -23318,15 +21772,6 @@
           <t>8282DE6C-1EBC-471C-98EF-252E380313DD.jpg</t>
         </is>
       </c>
-      <c r="C971" t="n">
-        <v/>
-      </c>
-      <c r="D971" t="n">
-        <v/>
-      </c>
-      <c r="E971" t="n">
-        <v/>
-      </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
@@ -23334,15 +21779,6 @@
           <t>372224CF-286E-41C2-85D9-4BEA2C313525.jpg</t>
         </is>
       </c>
-      <c r="C972" t="n">
-        <v/>
-      </c>
-      <c r="D972" t="n">
-        <v/>
-      </c>
-      <c r="E972" t="n">
-        <v/>
-      </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -23376,9 +21812,6 @@
           <t>9D29DA23-1C5F-42E5-9E54-EB94CC71175F.jpg</t>
         </is>
       </c>
-      <c r="C974" t="n">
-        <v/>
-      </c>
       <c r="D974" t="n">
         <v>12</v>
       </c>
@@ -23465,9 +21898,6 @@
           <t>6BD59B6E-7D7C-4493-9E04-35CB171B8C2E.jpg</t>
         </is>
       </c>
-      <c r="C978" t="n">
-        <v/>
-      </c>
       <c r="D978" t="n">
         <v>26</v>
       </c>
@@ -23520,12 +21950,6 @@
       <c r="C980" t="n">
         <v>1</v>
       </c>
-      <c r="D980" t="n">
-        <v/>
-      </c>
-      <c r="E980" t="n">
-        <v/>
-      </c>
       <c r="F980" t="inlineStr">
         <is>
           <t>BESC-443_LM</t>
@@ -23546,12 +21970,6 @@
       <c r="C981" t="n">
         <v>1</v>
       </c>
-      <c r="D981" t="n">
-        <v/>
-      </c>
-      <c r="E981" t="n">
-        <v/>
-      </c>
       <c r="F981" t="inlineStr">
         <is>
           <t>SC-100_LM</t>
@@ -23590,15 +22008,6 @@
           <t>3D61B945-CA21-42F4-98EA-D8EAC14E97B6.jpg</t>
         </is>
       </c>
-      <c r="C983" t="n">
-        <v/>
-      </c>
-      <c r="D983" t="n">
-        <v/>
-      </c>
-      <c r="E983" t="n">
-        <v/>
-      </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
@@ -23742,15 +22151,6 @@
           <t>FBE43022-C775-4F15-B4FC-47734A500760.jpg</t>
         </is>
       </c>
-      <c r="C990" t="n">
-        <v/>
-      </c>
-      <c r="D990" t="n">
-        <v/>
-      </c>
-      <c r="E990" t="n">
-        <v/>
-      </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
@@ -23784,9 +22184,6 @@
           <t>7BBBA496-5DE9-431F-B1E7-4C7CCE7AD58E.jpg</t>
         </is>
       </c>
-      <c r="C992" t="n">
-        <v/>
-      </c>
       <c r="D992" t="n">
         <v>41</v>
       </c>
@@ -23805,15 +22202,6 @@
           <t>2AB08557-6E9A-45D1-960B-5129E7EAE885.jpg</t>
         </is>
       </c>
-      <c r="C993" t="n">
-        <v/>
-      </c>
-      <c r="D993" t="n">
-        <v/>
-      </c>
-      <c r="E993" t="n">
-        <v/>
-      </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
@@ -23821,15 +22209,6 @@
           <t>1F20AEBA-5DB7-45A9-8877-1A493B10E627.jpg</t>
         </is>
       </c>
-      <c r="C994" t="n">
-        <v/>
-      </c>
-      <c r="D994" t="n">
-        <v/>
-      </c>
-      <c r="E994" t="n">
-        <v/>
-      </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
@@ -23967,15 +22346,6 @@
           <t>A51C0AEE-4CD6-46A4-B083-9CE11DB04948.jpg</t>
         </is>
       </c>
-      <c r="C1000" t="n">
-        <v/>
-      </c>
-      <c r="D1000" t="n">
-        <v/>
-      </c>
-      <c r="E1000" t="n">
-        <v/>
-      </c>
       <c r="F1000" t="inlineStr">
         <is>
           <t>**HRSO-275**,core</t>
@@ -24316,15 +22686,6 @@
           <t>B9216A87-B8CE-4058-925C-461DF526CC03.jpg</t>
         </is>
       </c>
-      <c r="C1014" t="n">
-        <v/>
-      </c>
-      <c r="D1014" t="n">
-        <v/>
-      </c>
-      <c r="E1014" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
@@ -24338,9 +22699,6 @@
       <c r="D1015" t="n">
         <v>28</v>
       </c>
-      <c r="E1015" t="n">
-        <v/>
-      </c>
       <c r="F1015" t="inlineStr">
         <is>
           <t>FSC-284</t>
@@ -24353,15 +22711,6 @@
           <t>BD2830D7-A9D5-45D6-8076-8D60623AB208.jpg</t>
         </is>
       </c>
-      <c r="C1016" t="n">
-        <v/>
-      </c>
-      <c r="D1016" t="n">
-        <v/>
-      </c>
-      <c r="E1016" t="n">
-        <v/>
-      </c>
       <c r="F1016" t="inlineStr">
         <is>
           <t>**HOMD-21**,core</t>
@@ -24794,12 +23143,6 @@
       <c r="C1034" t="n">
         <v>1686</v>
       </c>
-      <c r="D1034" t="n">
-        <v/>
-      </c>
-      <c r="E1034" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
@@ -24828,9 +23171,6 @@
           <t>2BF592E3-6E9D-434F-BA83-4F9FE7231B3C.jpg</t>
         </is>
       </c>
-      <c r="C1036" t="n">
-        <v/>
-      </c>
       <c r="D1036" t="n">
         <v>8</v>
       </c>
@@ -24875,15 +23215,6 @@
           <t>9E78D283-FA73-4B8A-941A-AD26BACC2804.jpg</t>
         </is>
       </c>
-      <c r="C1038" t="n">
-        <v/>
-      </c>
-      <c r="D1038" t="n">
-        <v/>
-      </c>
-      <c r="E1038" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
@@ -25045,9 +23376,6 @@
       <c r="C1045" t="n">
         <v>1</v>
       </c>
-      <c r="D1045" t="n">
-        <v/>
-      </c>
       <c r="E1045" t="n">
         <v>80</v>
       </c>
@@ -25110,12 +23438,6 @@
           <t>EC7CF925-481B-43FD-B6F2-9007C6D04B81.jpg</t>
         </is>
       </c>
-      <c r="C1048" t="n">
-        <v/>
-      </c>
-      <c r="D1048" t="n">
-        <v/>
-      </c>
       <c r="E1048" t="n">
         <v>18</v>
       </c>
@@ -25212,9 +23534,6 @@
       <c r="C1052" t="n">
         <v>1</v>
       </c>
-      <c r="D1052" t="n">
-        <v/>
-      </c>
       <c r="E1052" t="n">
         <v>48</v>
       </c>
@@ -25277,15 +23596,6 @@
           <t>4BF07340-7731-4EA2-A363-3B310B25B87E.jpg</t>
         </is>
       </c>
-      <c r="C1055" t="n">
-        <v/>
-      </c>
-      <c r="D1055" t="n">
-        <v/>
-      </c>
-      <c r="E1055" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
@@ -25533,15 +23843,6 @@
           <t>D199219D-79A8-40CE-8858-2DE4EA539CDE.jpg</t>
         </is>
       </c>
-      <c r="C1066" t="n">
-        <v/>
-      </c>
-      <c r="D1066" t="n">
-        <v/>
-      </c>
-      <c r="E1066" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
@@ -25575,12 +23876,6 @@
           <t>F5917C75-0FA2-4967-B9AB-6456D0E1EEBA.jpg</t>
         </is>
       </c>
-      <c r="C1068" t="n">
-        <v/>
-      </c>
-      <c r="D1068" t="n">
-        <v/>
-      </c>
       <c r="E1068" t="n">
         <v>31</v>
       </c>
@@ -25601,9 +23896,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C1069" t="n">
-        <v/>
-      </c>
       <c r="D1069" t="n">
         <v>37</v>
       </c>
@@ -25643,15 +23935,6 @@
           <t>161EBFF4-0543-4A6D-8729-1E025400A327.jpg</t>
         </is>
       </c>
-      <c r="C1071" t="n">
-        <v/>
-      </c>
-      <c r="D1071" t="n">
-        <v/>
-      </c>
-      <c r="E1071" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
@@ -25706,15 +23989,9 @@
           <t>6AA3C284-5C9E-4444-8604-A7E457AD39E2.jpg</t>
         </is>
       </c>
-      <c r="C1074" t="n">
-        <v/>
-      </c>
       <c r="D1074" t="n">
         <v>21</v>
       </c>
-      <c r="E1074" t="n">
-        <v/>
-      </c>
       <c r="F1074" t="inlineStr">
         <is>
           <t>BESC-71_LM</t>
@@ -25779,9 +24056,6 @@
           <t>84FB1CC5-D2C4-4024-BD80-6E9DDA37E6C8.jpg</t>
         </is>
       </c>
-      <c r="C1077" t="n">
-        <v/>
-      </c>
       <c r="D1077" t="n">
         <v>13</v>
       </c>
@@ -25993,9 +24267,6 @@
       <c r="D1085" t="n">
         <v>4</v>
       </c>
-      <c r="E1085" t="n">
-        <v/>
-      </c>
       <c r="F1085" t="inlineStr">
         <is>
           <t>BESC-1151</t>
@@ -26263,15 +24534,6 @@
           <t>0B06EC24-7CCB-4A48-9464-5761BB470473.jpg</t>
         </is>
       </c>
-      <c r="C1096" t="n">
-        <v/>
-      </c>
-      <c r="D1096" t="n">
-        <v/>
-      </c>
-      <c r="E1096" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
@@ -26279,9 +24541,6 @@
           <t>F07352AE-1106-4045-9757-60041D2E1594.jpg</t>
         </is>
       </c>
-      <c r="C1097" t="n">
-        <v/>
-      </c>
       <c r="D1097" t="n">
         <v>31</v>
       </c>
@@ -26326,15 +24585,6 @@
           <t>E91F18C0-6436-4DD3-AFF8-E0FF6A6E7BCC.jpg</t>
         </is>
       </c>
-      <c r="C1099" t="n">
-        <v/>
-      </c>
-      <c r="D1099" t="n">
-        <v/>
-      </c>
-      <c r="E1099" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
@@ -26345,9 +24595,6 @@
       <c r="C1100" t="n">
         <v>1</v>
       </c>
-      <c r="D1100" t="n">
-        <v/>
-      </c>
       <c r="E1100" t="n">
         <v>31</v>
       </c>
@@ -26608,12 +24855,6 @@
           <t>DB5BED40-4916-4336-931E-C4E1779397B3.jpg</t>
         </is>
       </c>
-      <c r="C1111" t="n">
-        <v/>
-      </c>
-      <c r="D1111" t="n">
-        <v/>
-      </c>
       <c r="E1111" t="n">
         <v>77</v>
       </c>
@@ -26707,9 +24948,6 @@
           <t>C1FAB525-6EAB-4937-B2B5-474535CB3B3D.jpg</t>
         </is>
       </c>
-      <c r="C1115" t="n">
-        <v/>
-      </c>
       <c r="D1115" t="n">
         <v>31</v>
       </c>
@@ -26806,15 +25044,6 @@
           <t>1BBD82A3-C11A-4043-B97C-445A300885C9.jpg</t>
         </is>
       </c>
-      <c r="C1119" t="n">
-        <v/>
-      </c>
-      <c r="D1119" t="n">
-        <v/>
-      </c>
-      <c r="E1119" t="n">
-        <v/>
-      </c>
       <c r="F1119" t="inlineStr">
         <is>
           <t>COREC-152</t>
@@ -26879,15 +25108,6 @@
           <t>8DCB4099-B541-400A-8B87-EE49EC62C52C.jpg</t>
         </is>
       </c>
-      <c r="C1122" t="n">
-        <v/>
-      </c>
-      <c r="D1122" t="n">
-        <v/>
-      </c>
-      <c r="E1122" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
@@ -26999,15 +25219,6 @@
           <t>1C636F57-A3F2-43A2-B10B-6A246F1C3C83.jpg</t>
         </is>
       </c>
-      <c r="C1127" t="n">
-        <v/>
-      </c>
-      <c r="D1127" t="n">
-        <v/>
-      </c>
-      <c r="E1127" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
@@ -27023,9 +25234,6 @@
       <c r="C1128" t="n">
         <v>1</v>
       </c>
-      <c r="D1128" t="n">
-        <v/>
-      </c>
       <c r="E1128" t="n">
         <v>28</v>
       </c>
@@ -27041,9 +25249,6 @@
           <t>6F7D5617-A5B7-44D3-8259-503B486EBDBE.jpg</t>
         </is>
       </c>
-      <c r="C1129" t="n">
-        <v/>
-      </c>
       <c r="D1129" t="n">
         <v>1</v>
       </c>
@@ -27135,12 +25340,6 @@
           <t>FC9DA254-E55D-4633-8F18-C50426EBEE7B.jpg</t>
         </is>
       </c>
-      <c r="C1133" t="n">
-        <v/>
-      </c>
-      <c r="D1133" t="n">
-        <v/>
-      </c>
       <c r="E1133" t="n">
         <v>56</v>
       </c>
@@ -27250,12 +25449,6 @@
           <t>04C94D2E-4F1F-4FF2-B030-A40EF3A38051.jpg</t>
         </is>
       </c>
-      <c r="C1138" t="n">
-        <v/>
-      </c>
-      <c r="D1138" t="n">
-        <v/>
-      </c>
       <c r="E1138" t="n">
         <v>51</v>
       </c>
@@ -27375,12 +25568,6 @@
           <t>9C15D229-088F-45FA-B938-611E446158E8.jpg</t>
         </is>
       </c>
-      <c r="C1143" t="n">
-        <v/>
-      </c>
-      <c r="D1143" t="n">
-        <v/>
-      </c>
       <c r="E1143" t="n">
         <v>40</v>
       </c>
@@ -27493,12 +25680,6 @@
       <c r="C1148" t="n">
         <v>1</v>
       </c>
-      <c r="D1148" t="n">
-        <v/>
-      </c>
-      <c r="E1148" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -27636,15 +25817,6 @@
           <t>B9DB1B41-518C-41CA-AE6A-93DCD39C5929.jpg</t>
         </is>
       </c>
-      <c r="C1154" t="n">
-        <v/>
-      </c>
-      <c r="D1154" t="n">
-        <v/>
-      </c>
-      <c r="E1154" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
@@ -27678,15 +25850,9 @@
           <t>385170DC-7E10-453B-9EE0-AA8A38CE9B8B.jpg</t>
         </is>
       </c>
-      <c r="C1156" t="n">
-        <v/>
-      </c>
       <c r="D1156" t="n">
         <v>24</v>
       </c>
-      <c r="E1156" t="n">
-        <v/>
-      </c>
       <c r="F1156" t="inlineStr">
         <is>
           <t>**BESC-130**,core</t>
@@ -27772,15 +25938,6 @@
           <t>A58291F8-35A9-4D0D-8347-E986D7F49804.jpg</t>
         </is>
       </c>
-      <c r="C1160" t="n">
-        <v/>
-      </c>
-      <c r="D1160" t="n">
-        <v/>
-      </c>
-      <c r="E1160" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
@@ -27864,12 +26021,6 @@
       <c r="C1164" t="n">
         <v>1</v>
       </c>
-      <c r="D1164" t="n">
-        <v/>
-      </c>
-      <c r="E1164" t="n">
-        <v/>
-      </c>
       <c r="F1164" t="inlineStr">
         <is>
           <t>**BESC-36**,core</t>
@@ -27882,15 +26033,6 @@
           <t>01E7DAA0-8668-43F0-9395-8FDB9B02DF80.jpg</t>
         </is>
       </c>
-      <c r="C1165" t="n">
-        <v/>
-      </c>
-      <c r="D1165" t="n">
-        <v/>
-      </c>
-      <c r="E1165" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
@@ -27950,15 +26092,6 @@
           <t>24140633-2EB9-4985-B5ED-6860585725D3.jpg</t>
         </is>
       </c>
-      <c r="C1168" t="n">
-        <v/>
-      </c>
-      <c r="D1168" t="n">
-        <v/>
-      </c>
-      <c r="E1168" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
@@ -27992,15 +26125,6 @@
           <t>F3575EC8-B132-4318-A966-C9C9B56877D5.jpg</t>
         </is>
       </c>
-      <c r="C1170" t="n">
-        <v/>
-      </c>
-      <c r="D1170" t="n">
-        <v/>
-      </c>
-      <c r="E1170" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
@@ -28190,9 +26314,6 @@
           <t>04CD2C71-8821-4342-B85B-EDCF3382AC9B.jpg</t>
         </is>
       </c>
-      <c r="C1178" t="n">
-        <v/>
-      </c>
       <c r="D1178" t="n">
         <v>44</v>
       </c>
@@ -28289,15 +26410,6 @@
           <t>F1C60A3A-E4F0-4DAC-A656-92A2DD1AE2C2.jpg</t>
         </is>
       </c>
-      <c r="C1182" t="n">
-        <v/>
-      </c>
-      <c r="D1182" t="n">
-        <v/>
-      </c>
-      <c r="E1182" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
@@ -28409,15 +26521,6 @@
           <t>0B851C07-1F9E-48ED-8D37-BD1DEB816073.jpg</t>
         </is>
       </c>
-      <c r="C1187" t="n">
-        <v/>
-      </c>
-      <c r="D1187" t="n">
-        <v/>
-      </c>
-      <c r="E1187" t="n">
-        <v/>
-      </c>
       <c r="F1187" t="inlineStr">
         <is>
           <t>SLMB-28-21</t>
@@ -28430,9 +26533,6 @@
           <t>03852B7E-8D22-4FF1-8860-C049CBCCC6CE.jpg</t>
         </is>
       </c>
-      <c r="C1188" t="n">
-        <v/>
-      </c>
       <c r="D1188" t="n">
         <v>13</v>
       </c>
@@ -28555,15 +26655,6 @@
           <t>6E68D8A2-6904-48D6-AAB9-0A5B9057DF4B.jpg</t>
         </is>
       </c>
-      <c r="C1193" t="n">
-        <v/>
-      </c>
-      <c r="D1193" t="n">
-        <v/>
-      </c>
-      <c r="E1193" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
@@ -28571,15 +26662,6 @@
           <t>7D3D1932-5A3B-49ED-A76B-6146CAFB3CD6.jpg</t>
         </is>
       </c>
-      <c r="C1194" t="n">
-        <v/>
-      </c>
-      <c r="D1194" t="n">
-        <v/>
-      </c>
-      <c r="E1194" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
@@ -28592,9 +26674,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C1195" t="n">
-        <v/>
-      </c>
       <c r="D1195" t="n">
         <v>2</v>
       </c>
@@ -28739,9 +26818,6 @@
       <c r="D1201" t="n">
         <v>4</v>
       </c>
-      <c r="E1201" t="n">
-        <v/>
-      </c>
       <c r="F1201" t="inlineStr">
         <is>
           <t>**BESC-443_LM**,core</t>
@@ -28754,15 +26830,6 @@
           <t>1DB64F61-816E-4AD8-899A-EBB625AC126A.jpg</t>
         </is>
       </c>
-      <c r="C1202" t="n">
-        <v/>
-      </c>
-      <c r="D1202" t="n">
-        <v/>
-      </c>
-      <c r="E1202" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
@@ -28817,15 +26884,6 @@
           <t>C6DC78A6-8421-4B88-BDF9-6A9B9166E714.jpg</t>
         </is>
       </c>
-      <c r="C1205" t="n">
-        <v/>
-      </c>
-      <c r="D1205" t="n">
-        <v/>
-      </c>
-      <c r="E1205" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
@@ -29031,15 +27089,6 @@
           <t>A2C675C5-1F74-4BBE-9FD9-D1250FF972AE.jpg</t>
         </is>
       </c>
-      <c r="C1214" t="n">
-        <v/>
-      </c>
-      <c r="D1214" t="n">
-        <v/>
-      </c>
-      <c r="E1214" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
@@ -29120,12 +27169,6 @@
           <t>B8DCAE82-FD5E-48C7-8F54-F81A7D9466E6.jpg</t>
         </is>
       </c>
-      <c r="C1218" t="n">
-        <v/>
-      </c>
-      <c r="D1218" t="n">
-        <v/>
-      </c>
       <c r="E1218" t="n">
         <v>53</v>
       </c>
@@ -29209,15 +27252,6 @@
           <t>556762AF-FFFB-4C77-AA51-5DCB7AEF06D2.jpg</t>
         </is>
       </c>
-      <c r="C1222" t="n">
-        <v/>
-      </c>
-      <c r="D1222" t="n">
-        <v/>
-      </c>
-      <c r="E1222" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
@@ -29225,15 +27259,6 @@
           <t>B9415B29-A1E4-4BFB-955A-8CBCE7AF29D7.jpg</t>
         </is>
       </c>
-      <c r="C1223" t="n">
-        <v/>
-      </c>
-      <c r="D1223" t="n">
-        <v/>
-      </c>
-      <c r="E1223" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
@@ -29345,15 +27370,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C1228" t="n">
-        <v/>
-      </c>
-      <c r="D1228" t="n">
-        <v/>
-      </c>
-      <c r="E1228" t="n">
-        <v/>
-      </c>
       <c r="F1228" t="inlineStr">
         <is>
           <t>CMBF-28-4</t>
@@ -29387,15 +27403,6 @@
           <t>118FF106-2CCA-41BA-A457-39D49DA26130.jpg</t>
         </is>
       </c>
-      <c r="C1230" t="n">
-        <v/>
-      </c>
-      <c r="D1230" t="n">
-        <v/>
-      </c>
-      <c r="E1230" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
@@ -29429,9 +27436,6 @@
           <t>F4CEBEF3-6FAB-48BF-A7BA-FA2C7FC65402.jpg</t>
         </is>
       </c>
-      <c r="C1232" t="n">
-        <v/>
-      </c>
       <c r="D1232" t="n">
         <v>41</v>
       </c>
@@ -29450,15 +27454,6 @@
           <t>5A4586E9-E619-43C1-BFD2-4DC0C6C09876.jpg</t>
         </is>
       </c>
-      <c r="C1233" t="n">
-        <v/>
-      </c>
-      <c r="D1233" t="n">
-        <v/>
-      </c>
-      <c r="E1233" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
@@ -29544,15 +27539,6 @@
           <t>64D15AF8-90D7-46F8-9FE8-FAA199D7F98D.jpg</t>
         </is>
       </c>
-      <c r="C1237" t="n">
-        <v/>
-      </c>
-      <c r="D1237" t="n">
-        <v/>
-      </c>
-      <c r="E1237" t="n">
-        <v/>
-      </c>
       <c r="F1237" t="inlineStr">
         <is>
           <t>**GW-2573**,core</t>
@@ -29617,15 +27603,6 @@
           <t>E6859A56-7793-42B5-9C7C-FA5A200CF7FA.jpg</t>
         </is>
       </c>
-      <c r="C1240" t="n">
-        <v/>
-      </c>
-      <c r="D1240" t="n">
-        <v/>
-      </c>
-      <c r="E1240" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
@@ -29633,15 +27610,6 @@
           <t>E9AE78F4-ABD7-4CE7-93D3-BC5C3257E06E.jpg</t>
         </is>
       </c>
-      <c r="C1241" t="n">
-        <v/>
-      </c>
-      <c r="D1241" t="n">
-        <v/>
-      </c>
-      <c r="E1241" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
@@ -29852,9 +27820,6 @@
           <t>E045B9BA-0474-4B89-896F-BABC4F2302C6.jpg</t>
         </is>
       </c>
-      <c r="C1250" t="n">
-        <v/>
-      </c>
       <c r="D1250" t="n">
         <v>24</v>
       </c>
@@ -29925,15 +27890,6 @@
           <t>6712D09B-2AA1-45E4-A55B-D5B11BAF1E9D.jpg</t>
         </is>
       </c>
-      <c r="C1253" t="n">
-        <v/>
-      </c>
-      <c r="D1253" t="n">
-        <v/>
-      </c>
-      <c r="E1253" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
@@ -29941,9 +27897,6 @@
           <t>FB62CD5F-DB59-46DB-BA67-F4CB207EC347.jpg</t>
         </is>
       </c>
-      <c r="C1254" t="n">
-        <v/>
-      </c>
       <c r="D1254" t="n">
         <v>28</v>
       </c>
@@ -29988,12 +27941,6 @@
           <t>9A886367-54B6-480F-BB7D-43D16B924988.jpg</t>
         </is>
       </c>
-      <c r="C1256" t="n">
-        <v/>
-      </c>
-      <c r="D1256" t="n">
-        <v/>
-      </c>
       <c r="E1256" t="n">
         <v>11</v>
       </c>
@@ -30035,15 +27982,6 @@
           <t>AA1C8CDC-0F21-4F69-992F-7C2E06D6D81C.jpg</t>
         </is>
       </c>
-      <c r="C1258" t="n">
-        <v/>
-      </c>
-      <c r="D1258" t="n">
-        <v/>
-      </c>
-      <c r="E1258" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
@@ -30155,12 +28093,6 @@
           <t>4A919B2C-2FB8-468C-8397-0051596348E8.jpg</t>
         </is>
       </c>
-      <c r="C1263" t="n">
-        <v/>
-      </c>
-      <c r="D1263" t="n">
-        <v/>
-      </c>
       <c r="E1263" t="n">
         <v>25</v>
       </c>
@@ -30176,9 +28108,6 @@
           <t>9214F526-E43F-4944-8A3B-190C82BA0EA6.jpg</t>
         </is>
       </c>
-      <c r="C1264" t="n">
-        <v/>
-      </c>
       <c r="D1264" t="n">
         <v>2</v>
       </c>
@@ -30223,9 +28152,6 @@
           <t>C47BA454-89C6-498F-AC46-233A6E74DF2F.jpg</t>
         </is>
       </c>
-      <c r="C1266" t="n">
-        <v/>
-      </c>
       <c r="D1266" t="n">
         <v>45</v>
       </c>
@@ -30322,15 +28248,6 @@
           <t>849BCE98-9516-4CB5-8AEA-9A911B23A68D.jpg</t>
         </is>
       </c>
-      <c r="C1270" t="n">
-        <v/>
-      </c>
-      <c r="D1270" t="n">
-        <v/>
-      </c>
-      <c r="E1270" t="n">
-        <v/>
-      </c>
       <c r="F1270" t="inlineStr">
         <is>
           <t>**BESC-187_CORE**,core</t>
@@ -30343,15 +28260,6 @@
           <t>DFA1CAF1-9649-46E1-ABBF-4FA387BAA573.jpg</t>
         </is>
       </c>
-      <c r="C1271" t="n">
-        <v/>
-      </c>
-      <c r="D1271" t="n">
-        <v/>
-      </c>
-      <c r="E1271" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
@@ -30458,15 +28366,6 @@
           <t>CB57AE51-FB7E-48CE-A7F6-1B10264434EA.jpg</t>
         </is>
       </c>
-      <c r="C1276" t="n">
-        <v/>
-      </c>
-      <c r="D1276" t="n">
-        <v/>
-      </c>
-      <c r="E1276" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
@@ -30474,15 +28373,6 @@
           <t>6B9F1697-36E1-4350-A4D9-A591AD5744E6.jpg</t>
         </is>
       </c>
-      <c r="C1277" t="n">
-        <v/>
-      </c>
-      <c r="D1277" t="n">
-        <v/>
-      </c>
-      <c r="E1277" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
@@ -30568,15 +28458,6 @@
           <t>211C22EB-ED47-4877-ABF3-FF24E1D5127F.jpg</t>
         </is>
       </c>
-      <c r="C1281" t="n">
-        <v/>
-      </c>
-      <c r="D1281" t="n">
-        <v/>
-      </c>
-      <c r="E1281" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
@@ -30626,15 +28507,6 @@
           <t>9D559F23-72AB-4BE8-95A9-69F80F7B345E.jpg</t>
         </is>
       </c>
-      <c r="C1284" t="n">
-        <v/>
-      </c>
-      <c r="D1284" t="n">
-        <v/>
-      </c>
-      <c r="E1284" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
@@ -30663,9 +28535,6 @@
           <t>BCF75759-C7D1-4EB9-989A-7D30529D9B5B.jpg</t>
         </is>
       </c>
-      <c r="C1286" t="n">
-        <v/>
-      </c>
       <c r="D1286" t="n">
         <v>21</v>
       </c>
@@ -30762,15 +28631,6 @@
           <t>D0B7767F-F8E8-4FC4-9BAD-6256632C1ADE.jpg</t>
         </is>
       </c>
-      <c r="C1290" t="n">
-        <v/>
-      </c>
-      <c r="D1290" t="n">
-        <v/>
-      </c>
-      <c r="E1290" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
@@ -30804,15 +28664,6 @@
           <t>51835036-0E0A-4307-A06E-1A33700FD912.jpg</t>
         </is>
       </c>
-      <c r="C1292" t="n">
-        <v/>
-      </c>
-      <c r="D1292" t="n">
-        <v/>
-      </c>
-      <c r="E1292" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
@@ -30872,15 +28723,6 @@
           <t>44F5ABB6-4E9B-4077-898A-72A15AAAA911.jpg</t>
         </is>
       </c>
-      <c r="C1295" t="n">
-        <v/>
-      </c>
-      <c r="D1295" t="n">
-        <v/>
-      </c>
-      <c r="E1295" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
@@ -30896,12 +28738,6 @@
       <c r="C1296" t="n">
         <v>1</v>
       </c>
-      <c r="D1296" t="n">
-        <v/>
-      </c>
-      <c r="E1296" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
@@ -31039,9 +28875,6 @@
           <t>46755857-EB5C-42CB-9EDE-4487FC3A0D95.jpg</t>
         </is>
       </c>
-      <c r="C1302" t="n">
-        <v/>
-      </c>
       <c r="D1302" t="n">
         <v>31</v>
       </c>
@@ -31289,15 +29122,6 @@
           <t>3EE67B4B-F244-4E46-8FEC-8460C4B24679.jpg</t>
         </is>
       </c>
-      <c r="C1312" t="n">
-        <v/>
-      </c>
-      <c r="D1312" t="n">
-        <v/>
-      </c>
-      <c r="E1312" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1313">
       <c r="A1313" t="inlineStr">
@@ -31404,15 +29228,6 @@
           <t>19394D6F-35BA-4B54-8AA6-462465E961B0.jpg</t>
         </is>
       </c>
-      <c r="C1317" t="n">
-        <v/>
-      </c>
-      <c r="D1317" t="n">
-        <v/>
-      </c>
-      <c r="E1317" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
@@ -31423,12 +29238,6 @@
       <c r="C1318" t="n">
         <v>1</v>
       </c>
-      <c r="D1318" t="n">
-        <v/>
-      </c>
-      <c r="E1318" t="n">
-        <v/>
-      </c>
       <c r="F1318" t="inlineStr">
         <is>
           <t>**BESC-116735**,core</t>
@@ -31467,9 +29276,6 @@
           <t>00BB417E-D97D-4B35-8306-85298F71299C.jpg</t>
         </is>
       </c>
-      <c r="C1320" t="n">
-        <v/>
-      </c>
       <c r="D1320" t="n">
         <v>2</v>
       </c>
@@ -31514,9 +29320,6 @@
           <t>919820C3-D759-4266-8FB7-ACEA0CCDB71D.jpg</t>
         </is>
       </c>
-      <c r="C1322" t="n">
-        <v/>
-      </c>
       <c r="D1322" t="n">
         <v>4</v>
       </c>
@@ -31608,15 +29411,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C1326" t="n">
-        <v/>
-      </c>
-      <c r="D1326" t="n">
-        <v/>
-      </c>
-      <c r="E1326" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1327">
       <c r="A1327" t="inlineStr">
@@ -31861,12 +29655,6 @@
       <c r="C1336" t="n">
         <v>1</v>
       </c>
-      <c r="D1336" t="n">
-        <v/>
-      </c>
-      <c r="E1336" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
@@ -31952,15 +29740,6 @@
           <t>2A98FCDB-8030-438D-93E5-F31D7494908C.jpg</t>
         </is>
       </c>
-      <c r="C1340" t="n">
-        <v/>
-      </c>
-      <c r="D1340" t="n">
-        <v/>
-      </c>
-      <c r="E1340" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
@@ -32088,15 +29867,6 @@
           <t>5C30493A-2795-4EBA-851A-18A1F785E338.jpg</t>
         </is>
       </c>
-      <c r="C1346" t="n">
-        <v/>
-      </c>
-      <c r="D1346" t="n">
-        <v/>
-      </c>
-      <c r="E1346" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
@@ -32255,15 +30025,6 @@
           <t>8F665299-F67A-4449-BBCE-2FB35E947A84.jpg</t>
         </is>
       </c>
-      <c r="C1353" t="n">
-        <v/>
-      </c>
-      <c r="D1353" t="n">
-        <v/>
-      </c>
-      <c r="E1353" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -32401,15 +30162,6 @@
           <t>3B80C2CA-998D-4004-9260-F28A83E074DF.jpg</t>
         </is>
       </c>
-      <c r="C1359" t="n">
-        <v/>
-      </c>
-      <c r="D1359" t="n">
-        <v/>
-      </c>
-      <c r="E1359" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
@@ -32417,15 +30169,6 @@
           <t>1912D319-B7CE-4FBA-9987-27AA53CEE930.jpg</t>
         </is>
       </c>
-      <c r="C1360" t="n">
-        <v/>
-      </c>
-      <c r="D1360" t="n">
-        <v/>
-      </c>
-      <c r="E1360" t="n">
-        <v/>
-      </c>
       <c r="F1360" t="inlineStr">
         <is>
           <t>**BESC-192_LMR**,core</t>
@@ -32464,15 +30207,6 @@
           <t>0D37DDD3-A9C3-4E6B-A271-BEECC2554B4F.jpg</t>
         </is>
       </c>
-      <c r="C1362" t="n">
-        <v/>
-      </c>
-      <c r="D1362" t="n">
-        <v/>
-      </c>
-      <c r="E1362" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
@@ -32678,9 +30412,6 @@
           <t>79A0CCB6-24D8-41CB-8C90-186F63EE4AFD.jpg</t>
         </is>
       </c>
-      <c r="C1371" t="n">
-        <v/>
-      </c>
       <c r="D1371" t="n">
         <v>3</v>
       </c>
@@ -32725,9 +30456,6 @@
           <t>48CCB510-B25E-4236-8D74-0EF915C416DB.jpg</t>
         </is>
       </c>
-      <c r="C1373" t="n">
-        <v/>
-      </c>
       <c r="D1373" t="n">
         <v>12</v>
       </c>
@@ -32772,15 +30500,6 @@
           <t>207A8F55-6E2A-4036-9F88-72364CFDF818.jpg</t>
         </is>
       </c>
-      <c r="C1375" t="n">
-        <v/>
-      </c>
-      <c r="D1375" t="n">
-        <v/>
-      </c>
-      <c r="E1375" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
@@ -32809,9 +30528,6 @@
           <t>33E65173-94E8-41E9-B63B-AA2A0F9BFB89.jpg</t>
         </is>
       </c>
-      <c r="C1377" t="n">
-        <v/>
-      </c>
       <c r="D1377" t="n">
         <v>34</v>
       </c>
@@ -32861,15 +30577,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C1379" t="n">
-        <v/>
-      </c>
-      <c r="D1379" t="n">
-        <v/>
-      </c>
-      <c r="E1379" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
@@ -32877,9 +30584,6 @@
           <t>9E65B6CD-6487-45E6-98EB-2EAF20A49ACE.jpg</t>
         </is>
       </c>
-      <c r="C1380" t="n">
-        <v/>
-      </c>
       <c r="D1380" t="n">
         <v>36</v>
       </c>
@@ -32997,9 +30701,6 @@
           <t>9387EE38-E8A7-45B6-9670-B1C97B67E0AC.jpg</t>
         </is>
       </c>
-      <c r="C1385" t="n">
-        <v/>
-      </c>
       <c r="D1385" t="n">
         <v>34</v>
       </c>
@@ -33211,15 +30912,6 @@
           <t>9BB35411-9512-4B07-831E-2D8FCF8A6D0E.jpg</t>
         </is>
       </c>
-      <c r="C1394" t="n">
-        <v/>
-      </c>
-      <c r="D1394" t="n">
-        <v/>
-      </c>
-      <c r="E1394" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
@@ -33347,15 +31039,6 @@
           <t>32DF5A1B-90EE-4DA0-AB93-8F8D498B9DEC.jpg</t>
         </is>
       </c>
-      <c r="C1400" t="n">
-        <v/>
-      </c>
-      <c r="D1400" t="n">
-        <v/>
-      </c>
-      <c r="E1400" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
@@ -33363,15 +31046,6 @@
           <t>866E88B4-7701-43A9-8BBB-6A1C6B9A1D0A.jpg</t>
         </is>
       </c>
-      <c r="C1401" t="n">
-        <v/>
-      </c>
-      <c r="D1401" t="n">
-        <v/>
-      </c>
-      <c r="E1401" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
@@ -33431,15 +31105,6 @@
           <t>8FD7D725-FFBD-4D9C-AF81-2DF341F1EDA9.jpg</t>
         </is>
       </c>
-      <c r="C1404" t="n">
-        <v/>
-      </c>
-      <c r="D1404" t="n">
-        <v/>
-      </c>
-      <c r="E1404" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
@@ -33619,15 +31284,6 @@
           <t>2DAA01CD-79D0-4C10-BA3E-09176DAA5BEC.jpg</t>
         </is>
       </c>
-      <c r="C1412" t="n">
-        <v/>
-      </c>
-      <c r="D1412" t="n">
-        <v/>
-      </c>
-      <c r="E1412" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
@@ -33838,15 +31494,6 @@
           <t>0039079E-9FAB-4507-8753-6D33075B0CBC.jpg</t>
         </is>
       </c>
-      <c r="C1421" t="n">
-        <v/>
-      </c>
-      <c r="D1421" t="n">
-        <v/>
-      </c>
-      <c r="E1421" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
@@ -33948,15 +31595,6 @@
           <t>7F68E5F9-9D40-42D5-962B-7A8262740D42.jpg</t>
         </is>
       </c>
-      <c r="C1426" t="n">
-        <v/>
-      </c>
-      <c r="D1426" t="n">
-        <v/>
-      </c>
-      <c r="E1426" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
@@ -34094,9 +31732,6 @@
           <t>6C2EBF3A-88A6-4633-AE3D-2874CC4BD709.jpg</t>
         </is>
       </c>
-      <c r="C1432" t="n">
-        <v/>
-      </c>
       <c r="D1432" t="n">
         <v>30</v>
       </c>
@@ -34235,12 +31870,6 @@
           <t>FD595DBC-40E1-4329-94F5-7B59592BBCB5.jpg</t>
         </is>
       </c>
-      <c r="C1438" t="n">
-        <v/>
-      </c>
-      <c r="D1438" t="n">
-        <v/>
-      </c>
       <c r="E1438" t="n">
         <v>23</v>
       </c>
@@ -34256,9 +31885,6 @@
           <t>2EBD94DA-88E6-4A2A-8667-E311EE9EE7EA.jpg</t>
         </is>
       </c>
-      <c r="C1439" t="n">
-        <v/>
-      </c>
       <c r="D1439" t="n">
         <v>8</v>
       </c>
@@ -34277,15 +31903,6 @@
           <t>8CE156CF-6BED-4F99-9E09-30A0F7911F7A.jpg</t>
         </is>
       </c>
-      <c r="C1440" t="n">
-        <v/>
-      </c>
-      <c r="D1440" t="n">
-        <v/>
-      </c>
-      <c r="E1440" t="n">
-        <v/>
-      </c>
       <c r="F1440" t="inlineStr">
         <is>
           <t>GVV-8552</t>
@@ -34376,15 +31993,6 @@
           <t>3BD2B2F2-2B25-4E3F-9751-B41D41184F29.jpg</t>
         </is>
       </c>
-      <c r="C1444" t="n">
-        <v/>
-      </c>
-      <c r="D1444" t="n">
-        <v/>
-      </c>
-      <c r="E1444" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
@@ -34418,15 +32026,6 @@
           <t>D1A59055-465A-4DBE-B308-ABCC71069EDC.jpg</t>
         </is>
       </c>
-      <c r="C1446" t="n">
-        <v/>
-      </c>
-      <c r="D1446" t="n">
-        <v/>
-      </c>
-      <c r="E1446" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
@@ -34434,15 +32033,6 @@
           <t>AED4FACE-A7C4-4371-A7F1-7FA4FE3BAD28.jpg</t>
         </is>
       </c>
-      <c r="C1447" t="n">
-        <v/>
-      </c>
-      <c r="D1447" t="n">
-        <v/>
-      </c>
-      <c r="E1447" t="n">
-        <v/>
-      </c>
       <c r="F1447" t="inlineStr">
         <is>
           <t>**GW-9919_LM**,core</t>
@@ -34455,15 +32045,6 @@
           <t>68FBEEFF-0E07-4A1A-8588-466282873375.jpg</t>
         </is>
       </c>
-      <c r="C1448" t="n">
-        <v/>
-      </c>
-      <c r="D1448" t="n">
-        <v/>
-      </c>
-      <c r="E1448" t="n">
-        <v/>
-      </c>
       <c r="F1448" t="inlineStr">
         <is>
           <t>**BESC-1101_31**,core</t>
@@ -34523,15 +32104,6 @@
           <t>8BFEAF76-CD3B-436F-80D6-8DC8D13CBA8A.jpg</t>
         </is>
       </c>
-      <c r="C1451" t="n">
-        <v/>
-      </c>
-      <c r="D1451" t="n">
-        <v/>
-      </c>
-      <c r="E1451" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
@@ -34565,12 +32137,6 @@
           <t>B65B443F-0012-431F-A041-7AD2976C5BE4.jpg</t>
         </is>
       </c>
-      <c r="C1453" t="n">
-        <v/>
-      </c>
-      <c r="D1453" t="n">
-        <v/>
-      </c>
       <c r="E1453" t="n">
         <v>38</v>
       </c>
@@ -34685,12 +32251,6 @@
           <t>039EEE17-E02A-44AF-9297-3318B67E635D.jpg</t>
         </is>
       </c>
-      <c r="C1458" t="n">
-        <v/>
-      </c>
-      <c r="D1458" t="n">
-        <v/>
-      </c>
       <c r="E1458" t="n">
         <v>33</v>
       </c>
@@ -34784,15 +32344,6 @@
           <t>23533802-DFF2-4677-925A-1E98F8B7AA22.jpg</t>
         </is>
       </c>
-      <c r="C1462" t="n">
-        <v/>
-      </c>
-      <c r="D1462" t="n">
-        <v/>
-      </c>
-      <c r="E1462" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
@@ -34886,12 +32437,6 @@
       <c r="C1466" t="n">
         <v>1</v>
       </c>
-      <c r="D1466" t="n">
-        <v/>
-      </c>
-      <c r="E1466" t="n">
-        <v/>
-      </c>
       <c r="F1466" t="inlineStr">
         <is>
           <t>HRSO-27</t>
@@ -34925,9 +32470,6 @@
           <t>4F63F100-3CB9-4B6E-906D-602824B7C0A8.jpg</t>
         </is>
       </c>
-      <c r="C1468" t="n">
-        <v/>
-      </c>
       <c r="D1468" t="n">
         <v>13</v>
       </c>
@@ -35222,15 +32764,6 @@
           <t>E4F52027-7588-48FA-9516-CCBC66DF84C9.jpg</t>
         </is>
       </c>
-      <c r="C1480" t="n">
-        <v/>
-      </c>
-      <c r="D1480" t="n">
-        <v/>
-      </c>
-      <c r="E1480" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
@@ -35415,15 +32948,9 @@
           <t>DA3EABA6-4C98-4DD6-A1AE-6140EE6D905D.jpg</t>
         </is>
       </c>
-      <c r="C1488" t="n">
-        <v/>
-      </c>
       <c r="D1488" t="n">
         <v>43</v>
       </c>
-      <c r="E1488" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
@@ -35431,15 +32958,6 @@
           <t>B3A7CDB6-2564-4020-90D1-1109F49B0BFC.jpg</t>
         </is>
       </c>
-      <c r="C1489" t="n">
-        <v/>
-      </c>
-      <c r="D1489" t="n">
-        <v/>
-      </c>
-      <c r="E1489" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
@@ -35484,9 +33002,6 @@
       <c r="D1491" t="n">
         <v>76</v>
       </c>
-      <c r="E1491" t="n">
-        <v/>
-      </c>
       <c r="F1491" t="inlineStr">
         <is>
           <t>BESC-1236_37_15_CB</t>
@@ -35504,9 +33019,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C1492" t="n">
-        <v/>
-      </c>
       <c r="D1492" t="n">
         <v>23</v>
       </c>
@@ -35582,15 +33094,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="C1495" t="n">
-        <v/>
-      </c>
-      <c r="D1495" t="n">
-        <v/>
-      </c>
-      <c r="E1495" t="n">
-        <v/>
-      </c>
       <c r="F1495" t="inlineStr">
         <is>
           <t>**WELC-27-3_LM**,core</t>
@@ -35603,9 +33106,6 @@
           <t>61DCFE5B-24D6-46E6-9B6B-3B7FA437DD4D.jpg</t>
         </is>
       </c>
-      <c r="C1496" t="n">
-        <v/>
-      </c>
       <c r="D1496" t="n">
         <v>7</v>
       </c>
@@ -35624,9 +33124,6 @@
           <t>5E91D3CB-2F5D-427E-A6ED-313EBB699D47.jpg</t>
         </is>
       </c>
-      <c r="C1497" t="n">
-        <v/>
-      </c>
       <c r="D1497" t="n">
         <v>8</v>
       </c>
@@ -35838,15 +33335,6 @@
           <t>3AD1FB29-A4BF-49BE-9C5C-9ACF485F6457.jpg</t>
         </is>
       </c>
-      <c r="C1506" t="n">
-        <v/>
-      </c>
-      <c r="D1506" t="n">
-        <v/>
-      </c>
-      <c r="E1506" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
@@ -35932,15 +33420,6 @@
           <t>CDC5356F-BDDF-4FC6-9EF5-0BC7B211B626.jpg</t>
         </is>
       </c>
-      <c r="C1510" t="n">
-        <v/>
-      </c>
-      <c r="D1510" t="n">
-        <v/>
-      </c>
-      <c r="E1510" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
@@ -36141,15 +33620,6 @@
           <t>5E29880F-7350-46A7-936D-DD778E614696.jpg</t>
         </is>
       </c>
-      <c r="C1519" t="n">
-        <v/>
-      </c>
-      <c r="D1519" t="n">
-        <v/>
-      </c>
-      <c r="E1519" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
@@ -36209,12 +33679,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="C1522" t="n">
-        <v/>
-      </c>
-      <c r="D1522" t="n">
-        <v/>
-      </c>
       <c r="E1522" t="n">
         <v>55</v>
       </c>
@@ -36241,9 +33705,6 @@
       <c r="D1523" t="n">
         <v>39</v>
       </c>
-      <c r="E1523" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
@@ -36285,12 +33746,6 @@
       <c r="C1525" t="n">
         <v>1</v>
       </c>
-      <c r="D1525" t="n">
-        <v/>
-      </c>
-      <c r="E1525" t="n">
-        <v/>
-      </c>
       <c r="F1525" t="inlineStr">
         <is>
           <t>CMBF-28-1</t>
@@ -36329,15 +33784,6 @@
           <t>E982EE31-ECC4-438E-89A7-4137518EE284.jpg</t>
         </is>
       </c>
-      <c r="C1527" t="n">
-        <v/>
-      </c>
-      <c r="D1527" t="n">
-        <v/>
-      </c>
-      <c r="E1527" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
@@ -36397,12 +33843,6 @@
           <t>D9485E51-B96B-40BA-86E7-1558231487DE.jpg</t>
         </is>
       </c>
-      <c r="C1530" t="n">
-        <v/>
-      </c>
-      <c r="D1530" t="n">
-        <v/>
-      </c>
       <c r="E1530" t="n">
         <v>5</v>
       </c>
@@ -36444,15 +33884,6 @@
           <t>E7AB00C9-A94D-4391-953C-D1A346929653.jpg</t>
         </is>
       </c>
-      <c r="C1532" t="n">
-        <v/>
-      </c>
-      <c r="D1532" t="n">
-        <v/>
-      </c>
-      <c r="E1532" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
@@ -36538,12 +33969,6 @@
           <t>AE5C39FE-0E06-4A40-93E3-F8FC1B3095CB.jpg</t>
         </is>
       </c>
-      <c r="C1536" t="n">
-        <v/>
-      </c>
-      <c r="D1536" t="n">
-        <v/>
-      </c>
       <c r="E1536" t="n">
         <v>7</v>
       </c>
@@ -36559,15 +33984,6 @@
           <t>4D75730D-CA6E-457E-8494-C0A3247E03A9.jpg</t>
         </is>
       </c>
-      <c r="C1537" t="n">
-        <v/>
-      </c>
-      <c r="D1537" t="n">
-        <v/>
-      </c>
-      <c r="E1537" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
@@ -36596,15 +34012,9 @@
           <t>10E800BB-509C-4C61-9398-50DADDE6FFFA.jpg</t>
         </is>
       </c>
-      <c r="C1539" t="n">
-        <v/>
-      </c>
       <c r="D1539" t="n">
         <v>32</v>
       </c>
-      <c r="E1539" t="n">
-        <v/>
-      </c>
       <c r="F1539" t="inlineStr">
         <is>
           <t>BESC-1231</t>
@@ -36617,9 +34027,6 @@
           <t>77648660-E51D-415F-A58B-4BB4D5B5A23C.jpg</t>
         </is>
       </c>
-      <c r="C1540" t="n">
-        <v/>
-      </c>
       <c r="D1540" t="n">
         <v>2</v>
       </c>
@@ -36716,12 +34123,6 @@
           <t>F40295E8-90F0-4AFE-B5F9-F70B426603C5.jpg</t>
         </is>
       </c>
-      <c r="C1544" t="n">
-        <v/>
-      </c>
-      <c r="D1544" t="n">
-        <v/>
-      </c>
       <c r="E1544" t="n">
         <v>12</v>
       </c>
@@ -36816,9 +34217,6 @@
       <c r="D1548" t="n">
         <v>57</v>
       </c>
-      <c r="E1548" t="n">
-        <v/>
-      </c>
       <c r="F1548" t="inlineStr">
         <is>
           <t>HOPF-27-3</t>
@@ -36904,9 +34302,6 @@
           <t>497D5F09-20E3-42EF-B7BD-BB085372DF49.jpg</t>
         </is>
       </c>
-      <c r="C1552" t="n">
-        <v/>
-      </c>
       <c r="D1552" t="n">
         <v>29</v>
       </c>
@@ -37050,9 +34445,6 @@
           <t>E1C7F995-B93E-405A-8673-33234D35E1E5.jpg</t>
         </is>
       </c>
-      <c r="C1558" t="n">
-        <v/>
-      </c>
       <c r="D1558" t="n">
         <v>9</v>
       </c>
@@ -37524,15 +34916,6 @@
           <t>4EEDD364-D9F1-4B84-81C4-F8C3731F6BA5.jpg</t>
         </is>
       </c>
-      <c r="C1577" t="n">
-        <v/>
-      </c>
-      <c r="D1577" t="n">
-        <v/>
-      </c>
-      <c r="E1577" t="n">
-        <v/>
-      </c>
       <c r="F1577" t="inlineStr">
         <is>
           <t>GW-9811</t>
@@ -37571,12 +34954,6 @@
           <t>6034B28C-3401-46B5-B7CB-A7A7A70A42F4.jpg</t>
         </is>
       </c>
-      <c r="C1579" t="n">
-        <v/>
-      </c>
-      <c r="D1579" t="n">
-        <v/>
-      </c>
       <c r="E1579" t="n">
         <v>45</v>
       </c>
@@ -37774,15 +35151,6 @@
           <t>7233AEE2-6105-43CC-B1D2-46FC1FBCF44E.jpg</t>
         </is>
       </c>
-      <c r="C1587" t="n">
-        <v/>
-      </c>
-      <c r="D1587" t="n">
-        <v/>
-      </c>
-      <c r="E1587" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
@@ -37988,9 +35356,6 @@
           <t>6D02A8C7-CAE8-471D-B031-A885EF1E8632.jpg</t>
         </is>
       </c>
-      <c r="C1596" t="n">
-        <v/>
-      </c>
       <c r="D1596" t="n">
         <v>26</v>
       </c>
@@ -38103,15 +35468,6 @@
           <t>8A1472EC-B736-48E2-A7DF-558B39382A0B.jpg</t>
         </is>
       </c>
-      <c r="C1601" t="n">
-        <v/>
-      </c>
-      <c r="D1601" t="n">
-        <v/>
-      </c>
-      <c r="E1601" t="n">
-        <v/>
-      </c>
       <c r="F1601" t="inlineStr">
         <is>
           <t>BESC-385</t>
@@ -38228,9 +35584,6 @@
           <t>50AB314D-9B11-4C0C-BB7D-DF3117EA35F3.jpg</t>
         </is>
       </c>
-      <c r="C1606" t="n">
-        <v/>
-      </c>
       <c r="D1606" t="n">
         <v>10</v>
       </c>
@@ -38296,15 +35649,6 @@
           <t>0344F5AF-51E8-4D30-B663-869B6EE61619.jpg</t>
         </is>
       </c>
-      <c r="C1609" t="n">
-        <v/>
-      </c>
-      <c r="D1609" t="n">
-        <v/>
-      </c>
-      <c r="E1609" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
@@ -38541,15 +35885,6 @@
           <t>E2091CE3-6EB1-42CA-842C-2C2632F7179D.jpg</t>
         </is>
       </c>
-      <c r="C1619" t="n">
-        <v/>
-      </c>
-      <c r="D1619" t="n">
-        <v/>
-      </c>
-      <c r="E1619" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
@@ -38583,15 +35918,6 @@
           <t>D9E3A917-AB4E-4A96-80B3-AAC131921E73.jpg</t>
         </is>
       </c>
-      <c r="C1621" t="n">
-        <v/>
-      </c>
-      <c r="D1621" t="n">
-        <v/>
-      </c>
-      <c r="E1621" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
@@ -38599,9 +35925,6 @@
           <t>A1FE7C9B-8F9B-4D09-83D1-C464232C5272.jpg</t>
         </is>
       </c>
-      <c r="C1622" t="n">
-        <v/>
-      </c>
       <c r="D1622" t="n">
         <v>2</v>
       </c>
@@ -38776,9 +36099,6 @@
           <t>FE9C9467-09A6-48FD-BAC8-C522025C7BF9.jpg</t>
         </is>
       </c>
-      <c r="C1629" t="n">
-        <v/>
-      </c>
       <c r="D1629" t="n">
         <v>11</v>
       </c>
@@ -38964,15 +36284,6 @@
           <t>9B0479D8-0DCE-4968-A54D-253E3B5E07EC.jpg</t>
         </is>
       </c>
-      <c r="C1637" t="n">
-        <v/>
-      </c>
-      <c r="D1637" t="n">
-        <v/>
-      </c>
-      <c r="E1637" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
@@ -39334,9 +36645,6 @@
           <t>F8B60CD1-4E79-42CC-B689-A97D3C78E42B.jpg</t>
         </is>
       </c>
-      <c r="C1652" t="n">
-        <v/>
-      </c>
       <c r="D1652" t="n">
         <v>9</v>
       </c>
@@ -39355,9 +36663,6 @@
           <t>C739CEBD-8035-4904-AC10-2AE668AC458B.jpg</t>
         </is>
       </c>
-      <c r="C1653" t="n">
-        <v/>
-      </c>
       <c r="D1653" t="n">
         <v>26</v>
       </c>
@@ -39470,12 +36775,6 @@
           <t>ACF1F14D-407C-4D83-A0F9-2A8424E225A4.jpg</t>
         </is>
       </c>
-      <c r="C1658" t="n">
-        <v/>
-      </c>
-      <c r="D1658" t="n">
-        <v/>
-      </c>
       <c r="E1658" t="n">
         <v>31</v>
       </c>
@@ -39569,9 +36868,6 @@
           <t>0A3B5F3B-23B6-4987-A557-F21E2106CE66.jpg</t>
         </is>
       </c>
-      <c r="C1662" t="n">
-        <v/>
-      </c>
       <c r="D1662" t="n">
         <v>22</v>
       </c>
@@ -39668,9 +36964,6 @@
           <t>1EA0BA87-29D6-45B2-8934-CF6C504EA0F7.jpg</t>
         </is>
       </c>
-      <c r="C1666" t="n">
-        <v/>
-      </c>
       <c r="D1666" t="n">
         <v>4</v>
       </c>
@@ -39735,15 +37028,6 @@
         <is>
           <t>91F395A8-E156-416C-84E8-A2880F067945.jpg</t>
         </is>
-      </c>
-      <c r="C1669" t="n">
-        <v/>
-      </c>
-      <c r="D1669" t="n">
-        <v/>
-      </c>
-      <c r="E1669" t="n">
-        <v/>
       </c>
     </row>
     <row r="1670">
